--- a/BackTest/2019-10-26 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-26 BackTest ORBS.xlsx
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -9761,13 +9761,17 @@
         <v>12.53999999999999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K268" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
@@ -9802,8 +9806,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9837,8 +9847,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9872,8 +9888,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9907,8 +9929,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9942,8 +9970,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9977,8 +10011,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10012,8 +10052,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10047,8 +10093,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10082,8 +10134,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10117,8 +10175,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10152,8 +10216,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10187,8 +10257,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10298,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10257,8 +10339,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10292,8 +10380,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10321,14 +10415,22 @@
         <v>12.45999999999999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K284" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10362,8 +10464,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10397,8 +10505,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10432,8 +10546,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10467,8 +10587,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10502,8 +10628,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10537,8 +10669,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10572,8 +10710,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10607,8 +10751,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10642,8 +10792,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10677,8 +10833,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10712,8 +10874,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10747,8 +10915,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10782,8 +10956,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10817,8 +10997,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10852,8 +11038,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10887,8 +11079,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10916,18 +11114,18 @@
         <v>12.01999999999999</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M301" t="n">
@@ -10963,7 +11161,9 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10996,15 +11196,15 @@
         <v>11.93999999999999</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11037,15 +11237,15 @@
         <v>11.95999999999999</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11078,15 +11278,15 @@
         <v>12.01999999999999</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11127,7 +11327,9 @@
       <c r="J306" t="n">
         <v>12.2</v>
       </c>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11166,9 +11368,11 @@
         <v>0</v>
       </c>
       <c r="J307" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K307" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K307" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11207,9 +11411,11 @@
         <v>0</v>
       </c>
       <c r="J308" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K308" t="inlineStr"/>
+        <v>12.3</v>
+      </c>
+      <c r="K308" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11248,9 +11454,11 @@
         <v>0</v>
       </c>
       <c r="J309" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K309" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K309" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11289,9 +11497,11 @@
         <v>0</v>
       </c>
       <c r="J310" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K310" t="inlineStr"/>
+        <v>12.3</v>
+      </c>
+      <c r="K310" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11324,15 +11534,15 @@
         <v>12.27999999999999</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11365,15 +11575,15 @@
         <v>12.27999999999999</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11406,15 +11616,15 @@
         <v>12.29999999999999</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11447,15 +11657,15 @@
         <v>12.27999999999999</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11488,15 +11698,15 @@
         <v>12.27999999999999</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11529,15 +11739,15 @@
         <v>12.23999999999999</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11570,15 +11780,15 @@
         <v>12.19999999999999</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11611,15 +11821,15 @@
         <v>12.19999999999999</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11652,15 +11862,15 @@
         <v>12.19999999999999</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-26 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-26 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M319"/>
+  <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>85808.8591</v>
+        <v>2820</v>
       </c>
       <c r="G2" t="n">
-        <v>12.99999999999999</v>
+        <v>12.86166666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>120658.9675</v>
+        <v>85808.8591</v>
       </c>
       <c r="G3" t="n">
-        <v>12.99999999999999</v>
+        <v>12.86666666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,16 +515,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>81246.47319999999</v>
+        <v>120658.9675</v>
       </c>
       <c r="G4" t="n">
-        <v>12.99999999999999</v>
+        <v>12.86833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -550,10 +550,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>34243.0158</v>
+        <v>81246.47319999999</v>
       </c>
       <c r="G5" t="n">
-        <v>12.99999999999999</v>
+        <v>12.87</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>34243.0158</v>
       </c>
       <c r="G6" t="n">
-        <v>13.01999999999999</v>
+        <v>12.875</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F7" t="n">
-        <v>68895.5575</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>13.01999999999999</v>
+        <v>12.87833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,16 +655,16 @@
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>5905.872</v>
+        <v>68895.5575</v>
       </c>
       <c r="G8" t="n">
-        <v>13.01999999999999</v>
+        <v>12.87833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>607709.8819</v>
+        <v>5905.872</v>
       </c>
       <c r="G9" t="n">
-        <v>13.03999999999999</v>
+        <v>12.87833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -725,10 +725,10 @@
         <v>13.1</v>
       </c>
       <c r="F10" t="n">
-        <v>200534.7064</v>
+        <v>607709.8819</v>
       </c>
       <c r="G10" t="n">
-        <v>13.05999999999998</v>
+        <v>12.87833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>13.1</v>
       </c>
       <c r="F11" t="n">
-        <v>28077.0069</v>
+        <v>200534.7064</v>
       </c>
       <c r="G11" t="n">
-        <v>13.05999999999998</v>
+        <v>12.87833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>13.1</v>
       </c>
       <c r="F12" t="n">
-        <v>374182.2215</v>
+        <v>28077.0069</v>
       </c>
       <c r="G12" t="n">
-        <v>13.07999999999998</v>
+        <v>12.87833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F13" t="n">
-        <v>137519.3796</v>
+        <v>374182.2215</v>
       </c>
       <c r="G13" t="n">
-        <v>13.07999999999998</v>
+        <v>12.87833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>110.2941</v>
+        <v>137519.3796</v>
       </c>
       <c r="G14" t="n">
-        <v>13.03999999999999</v>
+        <v>12.88</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,16 +900,16 @@
         <v>12.9</v>
       </c>
       <c r="F15" t="n">
-        <v>177897.4858</v>
+        <v>110.2941</v>
       </c>
       <c r="G15" t="n">
-        <v>12.99999999999999</v>
+        <v>12.87666666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -935,10 +935,10 @@
         <v>12.9</v>
       </c>
       <c r="F16" t="n">
-        <v>11432.2255</v>
+        <v>177897.4858</v>
       </c>
       <c r="G16" t="n">
-        <v>12.95999999999999</v>
+        <v>12.87666666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>12.9</v>
       </c>
       <c r="C17" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D17" t="n">
         <v>12.9</v>
       </c>
       <c r="E17" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F17" t="n">
-        <v>231762.7556</v>
+        <v>11432.2255</v>
       </c>
       <c r="G17" t="n">
-        <v>12.89999999999999</v>
+        <v>12.87833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C18" t="n">
         <v>12.8</v>
       </c>
       <c r="D18" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E18" t="n">
         <v>12.8</v>
       </c>
       <c r="F18" t="n">
-        <v>550.6501</v>
+        <v>231762.7556</v>
       </c>
       <c r="G18" t="n">
-        <v>12.85999999999999</v>
+        <v>12.87333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F19" t="n">
-        <v>454.7692</v>
+        <v>550.6501</v>
       </c>
       <c r="G19" t="n">
-        <v>12.87999999999999</v>
+        <v>12.87</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>23118</v>
+        <v>454.7692</v>
       </c>
       <c r="G20" t="n">
-        <v>12.89999999999999</v>
+        <v>12.87</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>64356.6633</v>
+        <v>23118</v>
       </c>
       <c r="G21" t="n">
-        <v>12.91999999999999</v>
+        <v>12.87166666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>42724.406</v>
+        <v>64356.6633</v>
       </c>
       <c r="G22" t="n">
-        <v>12.95999999999999</v>
+        <v>12.87666666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>42724.4061</v>
+        <v>42724.406</v>
       </c>
       <c r="G23" t="n">
-        <v>12.99999999999999</v>
+        <v>12.88</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C24" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D24" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>7692.3076</v>
+        <v>42724.4061</v>
       </c>
       <c r="G24" t="n">
-        <v>13.01999999999999</v>
+        <v>12.88333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C25" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D25" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E25" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F25" t="n">
-        <v>775.597</v>
+        <v>7692.3076</v>
       </c>
       <c r="G25" t="n">
-        <v>12.99999999999999</v>
+        <v>12.88666666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>775.597</v>
       </c>
       <c r="G26" t="n">
-        <v>12.99999999999999</v>
+        <v>12.88833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>3789.6833</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>12.99999999999999</v>
+        <v>12.89166666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>13030</v>
+        <v>3789.6833</v>
       </c>
       <c r="G28" t="n">
-        <v>12.99999999999999</v>
+        <v>12.89333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D29" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E29" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>13030</v>
       </c>
       <c r="G29" t="n">
-        <v>12.99999999999999</v>
+        <v>12.895</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D30" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F30" t="n">
-        <v>152.6717</v>
+        <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>13.01999999999999</v>
+        <v>12.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C31" t="n">
         <v>13</v>
@@ -1457,13 +1457,13 @@
         <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>3656.7802</v>
+        <v>152.6717</v>
       </c>
       <c r="G31" t="n">
-        <v>13.01999999999999</v>
+        <v>12.90333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C32" t="n">
         <v>13</v>
@@ -1492,13 +1492,13 @@
         <v>13</v>
       </c>
       <c r="E32" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F32" t="n">
-        <v>1929.4615</v>
+        <v>3656.7802</v>
       </c>
       <c r="G32" t="n">
-        <v>13.01999999999999</v>
+        <v>12.91</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>13</v>
       </c>
       <c r="F33" t="n">
-        <v>37977</v>
+        <v>1929.4615</v>
       </c>
       <c r="G33" t="n">
-        <v>13.01999999999999</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>13</v>
       </c>
       <c r="F34" t="n">
-        <v>33857.4663</v>
+        <v>37977</v>
       </c>
       <c r="G34" t="n">
-        <v>12.99999999999999</v>
+        <v>12.92166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C35" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D35" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E35" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F35" t="n">
-        <v>12560.6297</v>
+        <v>33857.4663</v>
       </c>
       <c r="G35" t="n">
-        <v>13.01999999999999</v>
+        <v>12.92833333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C36" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D36" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E36" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F36" t="n">
-        <v>44780.9952</v>
+        <v>12560.6297</v>
       </c>
       <c r="G36" t="n">
-        <v>13.01999999999999</v>
+        <v>12.935</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C37" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D37" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E37" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F37" t="n">
-        <v>348274.33</v>
+        <v>44780.9952</v>
       </c>
       <c r="G37" t="n">
-        <v>12.99999999999999</v>
+        <v>12.94</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>12.9</v>
       </c>
       <c r="F38" t="n">
-        <v>320.171</v>
+        <v>348274.33</v>
       </c>
       <c r="G38" t="n">
-        <v>12.97999999999999</v>
+        <v>12.94333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E39" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F39" t="n">
-        <v>13</v>
+        <v>320.171</v>
       </c>
       <c r="G39" t="n">
-        <v>12.97999999999999</v>
+        <v>12.94666666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C40" t="n">
         <v>13</v>
@@ -1772,13 +1772,13 @@
         <v>13</v>
       </c>
       <c r="E40" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F40" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="G40" t="n">
-        <v>12.95999999999999</v>
+        <v>12.95333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>12.9</v>
       </c>
       <c r="C41" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E41" t="n">
         <v>12.9</v>
       </c>
       <c r="F41" t="n">
-        <v>20410</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
-        <v>12.93999999999999</v>
+        <v>12.95833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>12.9</v>
       </c>
       <c r="F42" t="n">
-        <v>4822.4101</v>
+        <v>20410</v>
       </c>
       <c r="G42" t="n">
-        <v>12.93999999999999</v>
+        <v>12.96</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>12.9</v>
       </c>
       <c r="F43" t="n">
-        <v>30992.9659</v>
+        <v>4822.4101</v>
       </c>
       <c r="G43" t="n">
-        <v>12.93999999999999</v>
+        <v>12.96</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D44" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F44" t="n">
-        <v>3722.437</v>
+        <v>30992.9659</v>
       </c>
       <c r="G44" t="n">
-        <v>12.93999999999999</v>
+        <v>12.96166666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>13</v>
       </c>
       <c r="F45" t="n">
-        <v>3700.1299</v>
+        <v>3722.437</v>
       </c>
       <c r="G45" t="n">
-        <v>12.93999999999999</v>
+        <v>12.96333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>10077</v>
+        <v>3700.1299</v>
       </c>
       <c r="G46" t="n">
-        <v>12.95999999999999</v>
+        <v>12.965</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>13</v>
       </c>
       <c r="F47" t="n">
-        <v>18772.2459</v>
+        <v>10077</v>
       </c>
       <c r="G47" t="n">
-        <v>12.97999999999999</v>
+        <v>12.97</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C48" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D48" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E48" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>18772.2459</v>
       </c>
       <c r="G48" t="n">
-        <v>13.01999999999999</v>
+        <v>12.97333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>13.1</v>
       </c>
       <c r="F49" t="n">
-        <v>29494.603</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>13.03999999999999</v>
+        <v>12.97666666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>13.1</v>
       </c>
       <c r="F50" t="n">
-        <v>4855.87786259542</v>
+        <v>29494.603</v>
       </c>
       <c r="G50" t="n">
-        <v>13.05999999999998</v>
+        <v>12.98</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C51" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E51" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F51" t="n">
-        <v>2790</v>
+        <v>4855.87786259542</v>
       </c>
       <c r="G51" t="n">
-        <v>13.05999999999998</v>
+        <v>12.985</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>13</v>
       </c>
       <c r="F52" t="n">
-        <v>68982.07640000001</v>
+        <v>2790</v>
       </c>
       <c r="G52" t="n">
-        <v>13.05999999999998</v>
+        <v>12.98833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C53" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D53" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E53" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F53" t="n">
-        <v>12</v>
+        <v>68982.07640000001</v>
       </c>
       <c r="G53" t="n">
-        <v>13.05999999999998</v>
+        <v>12.98833333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>13.1</v>
       </c>
       <c r="F54" t="n">
-        <v>18039</v>
+        <v>12</v>
       </c>
       <c r="G54" t="n">
-        <v>13.05999999999998</v>
+        <v>12.99</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>13.1</v>
       </c>
       <c r="F55" t="n">
-        <v>38456</v>
+        <v>18039</v>
       </c>
       <c r="G55" t="n">
-        <v>13.05999999999998</v>
+        <v>12.995</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>13.1</v>
       </c>
       <c r="F56" t="n">
-        <v>45333.3797</v>
+        <v>38456</v>
       </c>
       <c r="G56" t="n">
-        <v>13.07999999999998</v>
+        <v>12.99833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>13.1</v>
       </c>
       <c r="C57" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D57" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E57" t="n">
         <v>13.1</v>
       </c>
       <c r="F57" t="n">
-        <v>92276.32486969697</v>
+        <v>45333.3797</v>
       </c>
       <c r="G57" t="n">
-        <v>13.11999999999999</v>
+        <v>13.00166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>13.1</v>
       </c>
       <c r="F58" t="n">
-        <v>14031.2594</v>
+        <v>92276.32486969697</v>
       </c>
       <c r="G58" t="n">
-        <v>13.13999999999999</v>
+        <v>13.00666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>13.1</v>
       </c>
       <c r="C59" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D59" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E59" t="n">
         <v>13.1</v>
       </c>
       <c r="F59" t="n">
-        <v>18676.8914</v>
+        <v>14031.2594</v>
       </c>
       <c r="G59" t="n">
-        <v>13.13999999999999</v>
+        <v>13.01</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C60" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D60" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E60" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F60" t="n">
-        <v>11</v>
+        <v>18676.8914</v>
       </c>
       <c r="G60" t="n">
-        <v>13.15999999999999</v>
+        <v>13.01166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C61" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D61" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E61" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F61" t="n">
-        <v>53307.1751</v>
+        <v>11</v>
       </c>
       <c r="G61" t="n">
-        <v>13.13999999999999</v>
+        <v>13.01500000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>13.1</v>
       </c>
       <c r="C62" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D62" t="n">
         <v>13.1</v>
       </c>
       <c r="E62" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F62" t="n">
-        <v>8400</v>
+        <v>53307.1751</v>
       </c>
       <c r="G62" t="n">
-        <v>13.11999999999999</v>
+        <v>13.01500000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>13.1</v>
       </c>
       <c r="F63" t="n">
-        <v>15838.0916</v>
+        <v>8400</v>
       </c>
       <c r="G63" t="n">
-        <v>13.09999999999999</v>
+        <v>13.01666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D64" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F64" t="n">
-        <v>221489.483</v>
+        <v>15838.0916</v>
       </c>
       <c r="G64" t="n">
-        <v>13.07999999999999</v>
+        <v>13.01833333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C65" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D65" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E65" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>221489.483</v>
       </c>
       <c r="G65" t="n">
-        <v>13.05999999999998</v>
+        <v>13.01833333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>13.1</v>
       </c>
       <c r="E66" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F66" t="n">
-        <v>198834.8918</v>
+        <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>13.07999999999998</v>
+        <v>13.02000000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D67" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
       </c>
       <c r="F67" t="n">
-        <v>44363.1301</v>
+        <v>198834.8918</v>
       </c>
       <c r="G67" t="n">
-        <v>13.05999999999998</v>
+        <v>13.02000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D68" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E68" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>44363.1301</v>
       </c>
       <c r="G68" t="n">
-        <v>13.05999999999998</v>
+        <v>13.02000000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>13.1</v>
       </c>
       <c r="F69" t="n">
-        <v>10098.6423</v>
+        <v>11</v>
       </c>
       <c r="G69" t="n">
-        <v>13.07999999999998</v>
+        <v>13.02166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>13.1</v>
       </c>
       <c r="F70" t="n">
-        <v>28317.1908</v>
+        <v>10098.6423</v>
       </c>
       <c r="G70" t="n">
-        <v>13.07999999999998</v>
+        <v>13.02166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C71" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D71" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F71" t="n">
-        <v>171610.9093</v>
+        <v>28317.1908</v>
       </c>
       <c r="G71" t="n">
-        <v>13.05999999999998</v>
+        <v>13.02166666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C72" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D72" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E72" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F72" t="n">
-        <v>363141.5942</v>
+        <v>171610.9093</v>
       </c>
       <c r="G72" t="n">
-        <v>13.07999999999998</v>
+        <v>13.02000000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>12.9</v>
       </c>
       <c r="C73" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D73" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E73" t="n">
         <v>12.9</v>
       </c>
       <c r="F73" t="n">
-        <v>58165.1012</v>
+        <v>363141.5942</v>
       </c>
       <c r="G73" t="n">
-        <v>13.03999999999999</v>
+        <v>13.02000000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="C74" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D74" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E74" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F74" t="n">
-        <v>339183.5576</v>
+        <v>58165.1012</v>
       </c>
       <c r="G74" t="n">
-        <v>13.01999999999999</v>
+        <v>13.01833333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C75" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D75" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E75" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F75" t="n">
-        <v>189006.2834</v>
+        <v>339183.5576</v>
       </c>
       <c r="G75" t="n">
-        <v>12.97999999999999</v>
+        <v>13.02000000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>12.9</v>
       </c>
       <c r="C76" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D76" t="n">
         <v>12.9</v>
       </c>
       <c r="E76" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F76" t="n">
-        <v>385262.4483</v>
+        <v>189006.2834</v>
       </c>
       <c r="G76" t="n">
-        <v>12.93999999999999</v>
+        <v>13.02000000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C77" t="n">
         <v>12.8</v>
       </c>
       <c r="D77" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E77" t="n">
         <v>12.8</v>
       </c>
       <c r="F77" t="n">
-        <v>229634.0783</v>
+        <v>385262.4483</v>
       </c>
       <c r="G77" t="n">
-        <v>12.87999999999999</v>
+        <v>13.01833333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C78" t="n">
         <v>12.8</v>
       </c>
       <c r="D78" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E78" t="n">
         <v>12.8</v>
       </c>
       <c r="F78" t="n">
-        <v>81021.78389999999</v>
+        <v>229634.0783</v>
       </c>
       <c r="G78" t="n">
-        <v>12.85999999999999</v>
+        <v>13.01833333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C79" t="n">
         <v>12.8</v>
       </c>
       <c r="D79" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E79" t="n">
         <v>12.8</v>
       </c>
       <c r="F79" t="n">
-        <v>50024.1097</v>
+        <v>81021.78389999999</v>
       </c>
       <c r="G79" t="n">
-        <v>12.81999999999999</v>
+        <v>13.01833333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3166,19 @@
         <v>12.8</v>
       </c>
       <c r="C80" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D80" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E80" t="n">
         <v>12.8</v>
       </c>
       <c r="F80" t="n">
-        <v>204950.7847</v>
+        <v>50024.1097</v>
       </c>
       <c r="G80" t="n">
-        <v>12.81999999999999</v>
+        <v>13.01500000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C81" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D81" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>204950.7847</v>
       </c>
       <c r="G81" t="n">
-        <v>12.85999999999999</v>
+        <v>13.01333333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C82" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D82" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E82" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F82" t="n">
-        <v>19614.4843</v>
+        <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>12.87999999999999</v>
+        <v>13.01333333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>12.9</v>
       </c>
       <c r="F83" t="n">
-        <v>177051.7592</v>
+        <v>19614.4843</v>
       </c>
       <c r="G83" t="n">
-        <v>12.89999999999999</v>
+        <v>13.01166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C84" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D84" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E84" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F84" t="n">
-        <v>82221.56140000001</v>
+        <v>177051.7592</v>
       </c>
       <c r="G84" t="n">
-        <v>12.89999999999999</v>
+        <v>13.01</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C85" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D85" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E85" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F85" t="n">
-        <v>7356.153846153846</v>
+        <v>82221.56140000001</v>
       </c>
       <c r="G85" t="n">
-        <v>12.91999999999999</v>
+        <v>13.005</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C86" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E86" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F86" t="n">
-        <v>9760</v>
+        <v>7356.153846153846</v>
       </c>
       <c r="G86" t="n">
-        <v>12.89999999999999</v>
+        <v>13.00666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>12.9</v>
       </c>
       <c r="F87" t="n">
-        <v>173652.7712</v>
+        <v>9760</v>
       </c>
       <c r="G87" t="n">
-        <v>12.89999999999999</v>
+        <v>13.005</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C88" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D88" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E88" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F88" t="n">
-        <v>33958.86575384616</v>
+        <v>173652.7712</v>
       </c>
       <c r="G88" t="n">
-        <v>12.91999999999999</v>
+        <v>13.00333333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>13</v>
       </c>
       <c r="F89" t="n">
-        <v>4339.9485</v>
+        <v>33958.86575384616</v>
       </c>
       <c r="G89" t="n">
-        <v>12.95999999999999</v>
+        <v>13.00333333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C90" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D90" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
       </c>
       <c r="F90" t="n">
-        <v>418043.8334</v>
+        <v>4339.9485</v>
       </c>
       <c r="G90" t="n">
-        <v>12.97999999999999</v>
+        <v>13.00166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>13.1</v>
       </c>
       <c r="E91" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F91" t="n">
-        <v>22694.3499</v>
+        <v>418043.8334</v>
       </c>
       <c r="G91" t="n">
-        <v>13.01999999999999</v>
+        <v>13.00333333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>13.1</v>
       </c>
       <c r="F92" t="n">
-        <v>93674.59110000001</v>
+        <v>22694.3499</v>
       </c>
       <c r="G92" t="n">
-        <v>13.05999999999998</v>
+        <v>13.005</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>13.1</v>
       </c>
       <c r="F93" t="n">
-        <v>618976.6412</v>
+        <v>93674.59110000001</v>
       </c>
       <c r="G93" t="n">
-        <v>13.07999999999998</v>
+        <v>13.00666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>13.1</v>
       </c>
       <c r="C94" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="D94" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="E94" t="n">
         <v>13.1</v>
       </c>
       <c r="F94" t="n">
-        <v>927092.375030303</v>
+        <v>618976.6412</v>
       </c>
       <c r="G94" t="n">
-        <v>13.13999999999998</v>
+        <v>13.00833333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C95" t="n">
         <v>13.3</v>
-      </c>
-      <c r="C95" t="n">
-        <v>13.2</v>
       </c>
       <c r="D95" t="n">
         <v>13.3</v>
       </c>
       <c r="E95" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F95" t="n">
-        <v>401170.727</v>
+        <v>927092.375030303</v>
       </c>
       <c r="G95" t="n">
-        <v>13.15999999999999</v>
+        <v>13.01333333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="C96" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D96" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="E96" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F96" t="n">
-        <v>12735.685</v>
+        <v>401170.727</v>
       </c>
       <c r="G96" t="n">
-        <v>13.15999999999999</v>
+        <v>13.015</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>13.1</v>
       </c>
       <c r="F97" t="n">
-        <v>13620.6175</v>
+        <v>12735.685</v>
       </c>
       <c r="G97" t="n">
-        <v>13.15999999999999</v>
+        <v>13.01666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C98" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D98" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E98" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F98" t="n">
-        <v>162596.4032</v>
+        <v>13620.6175</v>
       </c>
       <c r="G98" t="n">
-        <v>13.13999999999999</v>
+        <v>13.02</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C99" t="n">
         <v>13</v>
       </c>
       <c r="D99" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
       </c>
       <c r="F99" t="n">
-        <v>343911.523</v>
+        <v>162596.4032</v>
       </c>
       <c r="G99" t="n">
-        <v>13.07999999999999</v>
+        <v>13.02166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C100" t="n">
         <v>13</v>
       </c>
       <c r="D100" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
       </c>
       <c r="F100" t="n">
-        <v>481969.3433</v>
+        <v>343911.523</v>
       </c>
       <c r="G100" t="n">
-        <v>13.03999999999999</v>
+        <v>13.02166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C101" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D101" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E101" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F101" t="n">
-        <v>700</v>
+        <v>481969.3433</v>
       </c>
       <c r="G101" t="n">
-        <v>13.05999999999999</v>
+        <v>13.02166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C102" t="n">
         <v>13.2</v>
@@ -3942,13 +3942,13 @@
         <v>13.2</v>
       </c>
       <c r="E102" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F102" t="n">
-        <v>26360.1526</v>
+        <v>700</v>
       </c>
       <c r="G102" t="n">
-        <v>13.07999999999999</v>
+        <v>13.02666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>13.2</v>
       </c>
       <c r="F103" t="n">
-        <v>57550.7905</v>
+        <v>26360.1526</v>
       </c>
       <c r="G103" t="n">
-        <v>13.11999999999999</v>
+        <v>13.03166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C104" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D104" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E104" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F104" t="n">
-        <v>12530</v>
+        <v>57550.7905</v>
       </c>
       <c r="G104" t="n">
-        <v>13.13999999999999</v>
+        <v>13.03666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C105" t="n">
         <v>13.1</v>
@@ -4047,13 +4047,13 @@
         <v>13.1</v>
       </c>
       <c r="E105" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F105" t="n">
-        <v>237973.1064</v>
+        <v>12530</v>
       </c>
       <c r="G105" t="n">
-        <v>13.15999999999999</v>
+        <v>13.03833333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4076,19 @@
         <v>13</v>
       </c>
       <c r="C106" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D106" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
       </c>
       <c r="F106" t="n">
-        <v>665411.5568158508</v>
+        <v>237973.1064</v>
       </c>
       <c r="G106" t="n">
-        <v>13.11999999999999</v>
+        <v>13.04000000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>13</v>
       </c>
       <c r="F107" t="n">
-        <v>4832</v>
+        <v>665411.5568158508</v>
       </c>
       <c r="G107" t="n">
-        <v>13.07999999999999</v>
+        <v>13.04000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>13</v>
       </c>
       <c r="F108" t="n">
-        <v>4884</v>
+        <v>4832</v>
       </c>
       <c r="G108" t="n">
-        <v>13.03999999999999</v>
+        <v>13.04000000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C109" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D109" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E109" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F109" t="n">
-        <v>29826.4728</v>
+        <v>4884</v>
       </c>
       <c r="G109" t="n">
-        <v>12.99999999999999</v>
+        <v>13.03833333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>12.9</v>
       </c>
       <c r="F110" t="n">
-        <v>30988.2444</v>
+        <v>29826.4728</v>
       </c>
       <c r="G110" t="n">
-        <v>12.95999999999999</v>
+        <v>13.03500000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C111" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D111" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E111" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F111" t="n">
-        <v>137734.6907841492</v>
+        <v>30988.2444</v>
       </c>
       <c r="G111" t="n">
-        <v>12.95999999999999</v>
+        <v>13.03166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>13</v>
       </c>
       <c r="F112" t="n">
-        <v>24127.66301585082</v>
+        <v>137734.6907841492</v>
       </c>
       <c r="G112" t="n">
-        <v>12.95999999999999</v>
+        <v>13.03166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4327,13 +4327,13 @@
         <v>13</v>
       </c>
       <c r="E113" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F113" t="n">
-        <v>301919.2919</v>
+        <v>24127.66301585082</v>
       </c>
       <c r="G113" t="n">
-        <v>12.95999999999999</v>
+        <v>13.03166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C114" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D114" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E114" t="n">
         <v>12.9</v>
       </c>
       <c r="F114" t="n">
-        <v>19510</v>
+        <v>301919.2919</v>
       </c>
       <c r="G114" t="n">
-        <v>12.95999999999999</v>
+        <v>13.03000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>12.9</v>
       </c>
       <c r="F115" t="n">
-        <v>10628.0386</v>
+        <v>19510</v>
       </c>
       <c r="G115" t="n">
-        <v>12.95999999999999</v>
+        <v>13.02666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>12.9</v>
       </c>
       <c r="F116" t="n">
-        <v>123457.0446</v>
+        <v>10628.0386</v>
       </c>
       <c r="G116" t="n">
-        <v>12.93999999999999</v>
+        <v>13.02333333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>12.9</v>
       </c>
       <c r="F117" t="n">
-        <v>3148.1033</v>
+        <v>123457.0446</v>
       </c>
       <c r="G117" t="n">
-        <v>12.91999999999999</v>
+        <v>13.02</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4499,16 +4499,16 @@
         <v>12.9</v>
       </c>
       <c r="D118" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E118" t="n">
         <v>12.9</v>
       </c>
       <c r="F118" t="n">
-        <v>113306.9006</v>
+        <v>3148.1033</v>
       </c>
       <c r="G118" t="n">
-        <v>12.9</v>
+        <v>13.015</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4531,19 @@
         <v>12.9</v>
       </c>
       <c r="C119" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D119" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E119" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F119" t="n">
-        <v>99876.5165</v>
+        <v>113306.9006</v>
       </c>
       <c r="G119" t="n">
-        <v>12.87999999999999</v>
+        <v>13.01</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C120" t="n">
         <v>12.8</v>
       </c>
       <c r="D120" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E120" t="n">
         <v>12.8</v>
       </c>
       <c r="F120" t="n">
-        <v>56250</v>
+        <v>99876.5165</v>
       </c>
       <c r="G120" t="n">
-        <v>12.85999999999999</v>
+        <v>13.005</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>12.8</v>
       </c>
       <c r="C121" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D121" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E121" t="n">
         <v>12.8</v>
       </c>
       <c r="F121" t="n">
-        <v>234142.687</v>
+        <v>56250</v>
       </c>
       <c r="G121" t="n">
-        <v>12.85999999999999</v>
+        <v>12.99833333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C122" t="n">
         <v>12.9</v>
       </c>
       <c r="D122" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E122" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F122" t="n">
-        <v>197013.7596</v>
+        <v>234142.687</v>
       </c>
       <c r="G122" t="n">
-        <v>12.85999999999999</v>
+        <v>12.99666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C123" t="n">
         <v>12.9</v>
       </c>
       <c r="D123" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E123" t="n">
         <v>12.9</v>
       </c>
       <c r="F123" t="n">
-        <v>3033.6289</v>
+        <v>197013.7596</v>
       </c>
       <c r="G123" t="n">
-        <v>12.85999999999999</v>
+        <v>12.99333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="C124" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="D124" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="E124" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="F124" t="n">
-        <v>57.4436</v>
+        <v>3033.6289</v>
       </c>
       <c r="G124" t="n">
-        <v>12.95999999999999</v>
+        <v>12.99</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="C125" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="D125" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="E125" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="F125" t="n">
-        <v>5468.8797</v>
+        <v>57.4436</v>
       </c>
       <c r="G125" t="n">
-        <v>12.99999999999999</v>
+        <v>12.995</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>13</v>
       </c>
       <c r="F126" t="n">
-        <v>1356.4613</v>
+        <v>5468.8797</v>
       </c>
       <c r="G126" t="n">
-        <v>13.01999999999999</v>
+        <v>12.99333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>13</v>
       </c>
       <c r="F127" t="n">
-        <v>1952.059</v>
+        <v>1356.4613</v>
       </c>
       <c r="G127" t="n">
-        <v>13.03999999999999</v>
+        <v>12.99166666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,10 +4855,10 @@
         <v>13</v>
       </c>
       <c r="F128" t="n">
-        <v>9615.384599999999</v>
+        <v>1952.059</v>
       </c>
       <c r="G128" t="n">
-        <v>13.05999999999999</v>
+        <v>12.99166666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4881,19 +4881,19 @@
         <v>13</v>
       </c>
       <c r="C129" t="n">
-        <v>13.4</v>
+        <v>13</v>
       </c>
       <c r="D129" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
       </c>
       <c r="F129" t="n">
-        <v>375392.6511</v>
+        <v>9615.384599999999</v>
       </c>
       <c r="G129" t="n">
-        <v>13.07999999999999</v>
+        <v>12.99</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>13.4</v>
+        <v>13</v>
       </c>
       <c r="C130" t="n">
         <v>13.4</v>
       </c>
       <c r="D130" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E130" t="n">
-        <v>13.4</v>
+        <v>13</v>
       </c>
       <c r="F130" t="n">
-        <v>345055.1221</v>
+        <v>375392.6511</v>
       </c>
       <c r="G130" t="n">
-        <v>13.15999999999999</v>
+        <v>12.995</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>13.4</v>
       </c>
       <c r="F131" t="n">
-        <v>23020.9973</v>
+        <v>345055.1221</v>
       </c>
       <c r="G131" t="n">
-        <v>13.23999999999999</v>
+        <v>12.99999999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="C132" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="D132" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E132" t="n">
-        <v>13</v>
+        <v>13.4</v>
       </c>
       <c r="F132" t="n">
-        <v>126686.7338</v>
+        <v>23020.9973</v>
       </c>
       <c r="G132" t="n">
-        <v>13.25999999999999</v>
+        <v>13.00666666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5024,16 +5024,16 @@
         <v>13.1</v>
       </c>
       <c r="D133" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E133" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F133" t="n">
-        <v>4734.9707</v>
+        <v>126686.7338</v>
       </c>
       <c r="G133" t="n">
-        <v>13.27999999999999</v>
+        <v>13.00666666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>13.1</v>
       </c>
       <c r="C134" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D134" t="n">
         <v>13.1</v>
       </c>
       <c r="E134" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F134" t="n">
-        <v>84850.21829999999</v>
+        <v>4734.9707</v>
       </c>
       <c r="G134" t="n">
-        <v>13.19999999999999</v>
+        <v>13.00999999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C135" t="n">
         <v>13</v>
       </c>
       <c r="D135" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
       </c>
       <c r="F135" t="n">
-        <v>21.8</v>
+        <v>84850.21829999999</v>
       </c>
       <c r="G135" t="n">
-        <v>13.11999999999999</v>
+        <v>13.00999999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="C136" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="D136" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="E136" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="F136" t="n">
-        <v>25563.9097</v>
+        <v>21.8</v>
       </c>
       <c r="G136" t="n">
-        <v>13.09999999999999</v>
+        <v>13.01166666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="C137" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="D137" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="E137" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="F137" t="n">
-        <v>2680</v>
+        <v>25563.9097</v>
       </c>
       <c r="G137" t="n">
-        <v>13.09999999999999</v>
+        <v>13.01999999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="C138" t="n">
         <v>13.1</v>
       </c>
       <c r="D138" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="E138" t="n">
         <v>13.1</v>
       </c>
       <c r="F138" t="n">
-        <v>93610.3656</v>
+        <v>2680</v>
       </c>
       <c r="G138" t="n">
-        <v>13.09999999999999</v>
+        <v>13.025</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="C139" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D139" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="E139" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F139" t="n">
-        <v>32104.7392</v>
+        <v>93610.3656</v>
       </c>
       <c r="G139" t="n">
-        <v>13.09999999999999</v>
+        <v>13.03</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C140" t="n">
         <v>13</v>
       </c>
       <c r="D140" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
       </c>
       <c r="F140" t="n">
-        <v>7290.1591</v>
+        <v>32104.7392</v>
       </c>
       <c r="G140" t="n">
-        <v>13.09999999999999</v>
+        <v>13.03333333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>13</v>
       </c>
       <c r="F141" t="n">
-        <v>165841.704</v>
+        <v>7290.1591</v>
       </c>
       <c r="G141" t="n">
-        <v>13.03999999999999</v>
+        <v>13.035</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>13</v>
       </c>
       <c r="F142" t="n">
-        <v>1338.1772</v>
+        <v>165841.704</v>
       </c>
       <c r="G142" t="n">
-        <v>13.01999999999999</v>
+        <v>13.035</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>13</v>
       </c>
       <c r="F143" t="n">
-        <v>224462.5742</v>
+        <v>1338.1772</v>
       </c>
       <c r="G143" t="n">
-        <v>12.99999999999999</v>
+        <v>13.03666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>13</v>
       </c>
       <c r="F144" t="n">
-        <v>27880.7222</v>
+        <v>224462.5742</v>
       </c>
       <c r="G144" t="n">
-        <v>12.99999999999999</v>
+        <v>13.03833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>13</v>
       </c>
       <c r="F145" t="n">
-        <v>11410</v>
+        <v>27880.7222</v>
       </c>
       <c r="G145" t="n">
-        <v>12.99999999999999</v>
+        <v>13.04166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>13</v>
       </c>
       <c r="F146" t="n">
-        <v>32644</v>
+        <v>11410</v>
       </c>
       <c r="G146" t="n">
-        <v>12.99999999999999</v>
+        <v>13.04166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5520,10 @@
         <v>13</v>
       </c>
       <c r="F147" t="n">
-        <v>57839.5721</v>
+        <v>32644</v>
       </c>
       <c r="G147" t="n">
-        <v>12.99999999999999</v>
+        <v>13.04333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>13</v>
       </c>
       <c r="F148" t="n">
-        <v>694.7867</v>
+        <v>57839.5721</v>
       </c>
       <c r="G148" t="n">
-        <v>12.99999999999999</v>
+        <v>13.045</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>13</v>
       </c>
       <c r="F149" t="n">
-        <v>79126.2133</v>
+        <v>694.7867</v>
       </c>
       <c r="G149" t="n">
-        <v>12.99999999999999</v>
+        <v>13.045</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         <v>13</v>
       </c>
       <c r="F150" t="n">
-        <v>34605.0739</v>
+        <v>79126.2133</v>
       </c>
       <c r="G150" t="n">
-        <v>12.99999999999999</v>
+        <v>13.045</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C151" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D151" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
       </c>
       <c r="F151" t="n">
-        <v>336543.0327</v>
+        <v>34605.0739</v>
       </c>
       <c r="G151" t="n">
-        <v>13.01999999999999</v>
+        <v>13.04333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C152" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D152" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
       </c>
       <c r="F152" t="n">
-        <v>4013.1577</v>
+        <v>336543.0327</v>
       </c>
       <c r="G152" t="n">
-        <v>13.01999999999999</v>
+        <v>13.04333333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5730,10 +5730,10 @@
         <v>13</v>
       </c>
       <c r="F153" t="n">
-        <v>20704</v>
+        <v>4013.1577</v>
       </c>
       <c r="G153" t="n">
-        <v>13.01999999999999</v>
+        <v>13.04166666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>13</v>
       </c>
       <c r="F154" t="n">
-        <v>58945.7649</v>
+        <v>20704</v>
       </c>
       <c r="G154" t="n">
-        <v>13.01999999999999</v>
+        <v>13.04</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>13</v>
       </c>
       <c r="F155" t="n">
-        <v>2005.8611</v>
+        <v>58945.7649</v>
       </c>
       <c r="G155" t="n">
-        <v>13.01999999999999</v>
+        <v>13.035</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C156" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D156" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E156" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F156" t="n">
-        <v>23176.604</v>
+        <v>2005.8611</v>
       </c>
       <c r="G156" t="n">
-        <v>12.97999999999999</v>
+        <v>13.03166666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C157" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D157" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E157" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F157" t="n">
-        <v>375307.9436</v>
+        <v>23176.604</v>
       </c>
       <c r="G157" t="n">
-        <v>12.97999999999999</v>
+        <v>13.02833333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>13</v>
       </c>
       <c r="F158" t="n">
-        <v>47289</v>
+        <v>375307.9436</v>
       </c>
       <c r="G158" t="n">
-        <v>12.97999999999999</v>
+        <v>13.02666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +5940,10 @@
         <v>13</v>
       </c>
       <c r="F159" t="n">
-        <v>20000</v>
+        <v>47289</v>
       </c>
       <c r="G159" t="n">
-        <v>12.97999999999999</v>
+        <v>13.02666666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C160" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D160" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E160" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F160" t="n">
-        <v>170.1389</v>
+        <v>20000</v>
       </c>
       <c r="G160" t="n">
-        <v>12.95999999999999</v>
+        <v>13.02666666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6010,10 +6010,10 @@
         <v>12.9</v>
       </c>
       <c r="F161" t="n">
-        <v>970.1884</v>
+        <v>170.1389</v>
       </c>
       <c r="G161" t="n">
-        <v>12.95999999999999</v>
+        <v>13.025</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C162" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D162" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E162" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F162" t="n">
-        <v>24965</v>
+        <v>970.1884</v>
       </c>
       <c r="G162" t="n">
-        <v>12.95999999999999</v>
+        <v>13.02</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C163" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D163" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E163" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F163" t="n">
-        <v>2005.8611</v>
+        <v>24965</v>
       </c>
       <c r="G163" t="n">
-        <v>12.97999999999999</v>
+        <v>13.01666666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>13.1</v>
       </c>
       <c r="F164" t="n">
-        <v>1184.6836</v>
+        <v>2005.8611</v>
       </c>
       <c r="G164" t="n">
-        <v>12.99999999999999</v>
+        <v>13.015</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C165" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D165" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E165" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F165" t="n">
-        <v>247795.0757</v>
+        <v>1184.6836</v>
       </c>
       <c r="G165" t="n">
-        <v>13.05999999999999</v>
+        <v>13.015</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C166" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D166" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E166" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F166" t="n">
-        <v>35237.127</v>
+        <v>247795.0757</v>
       </c>
       <c r="G166" t="n">
-        <v>13.09999999999999</v>
+        <v>13.01666666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C167" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D167" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E167" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F167" t="n">
-        <v>130253.1861</v>
+        <v>35237.127</v>
       </c>
       <c r="G167" t="n">
-        <v>13.09999999999999</v>
+        <v>13.01833333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C168" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D168" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E168" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F168" t="n">
-        <v>11</v>
+        <v>130253.1861</v>
       </c>
       <c r="G168" t="n">
-        <v>13.09999999999999</v>
+        <v>13.01833333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6290,10 +6290,10 @@
         <v>13.1</v>
       </c>
       <c r="F169" t="n">
-        <v>36014</v>
+        <v>11</v>
       </c>
       <c r="G169" t="n">
-        <v>13.09999999999999</v>
+        <v>13.02</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C170" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D170" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E170" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F170" t="n">
-        <v>114018.3083</v>
+        <v>36014</v>
       </c>
       <c r="G170" t="n">
-        <v>13.05999999999998</v>
+        <v>13.02333333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6360,10 +6360,10 @@
         <v>13</v>
       </c>
       <c r="F171" t="n">
-        <v>38840</v>
+        <v>114018.3083</v>
       </c>
       <c r="G171" t="n">
-        <v>13.03999999999999</v>
+        <v>13.025</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>13</v>
       </c>
       <c r="F172" t="n">
-        <v>4740.2888</v>
+        <v>38840</v>
       </c>
       <c r="G172" t="n">
-        <v>13.03999999999999</v>
+        <v>13.025</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>13</v>
       </c>
       <c r="F173" t="n">
-        <v>62659.5364</v>
+        <v>4740.2888</v>
       </c>
       <c r="G173" t="n">
-        <v>13.01999999999999</v>
+        <v>13.025</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6465,10 +6465,10 @@
         <v>13</v>
       </c>
       <c r="F174" t="n">
-        <v>130449.6804</v>
+        <v>62659.5364</v>
       </c>
       <c r="G174" t="n">
-        <v>12.99999999999999</v>
+        <v>13.025</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6500,10 +6500,10 @@
         <v>13</v>
       </c>
       <c r="F175" t="n">
-        <v>30880.0878</v>
+        <v>130449.6804</v>
       </c>
       <c r="G175" t="n">
-        <v>12.99999999999999</v>
+        <v>13.02666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C176" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D176" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E176" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F176" t="n">
-        <v>25514.8772</v>
+        <v>30880.0878</v>
       </c>
       <c r="G176" t="n">
-        <v>12.97999999999999</v>
+        <v>13.02833333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="C177" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D177" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E177" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F177" t="n">
-        <v>73969.4656</v>
+        <v>25514.8772</v>
       </c>
       <c r="G177" t="n">
-        <v>12.99999999999999</v>
+        <v>13.02833333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6605,10 +6605,10 @@
         <v>13.1</v>
       </c>
       <c r="F178" t="n">
-        <v>231331.134</v>
+        <v>73969.4656</v>
       </c>
       <c r="G178" t="n">
-        <v>13.01999999999999</v>
+        <v>13.03166666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6640,10 +6640,10 @@
         <v>13.1</v>
       </c>
       <c r="F179" t="n">
-        <v>4310</v>
+        <v>231331.134</v>
       </c>
       <c r="G179" t="n">
-        <v>13.03999999999999</v>
+        <v>13.035</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6672,13 +6672,13 @@
         <v>13.1</v>
       </c>
       <c r="E180" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F180" t="n">
-        <v>252397</v>
+        <v>4310</v>
       </c>
       <c r="G180" t="n">
-        <v>13.05999999999998</v>
+        <v>13.04</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C181" t="n">
         <v>13.1</v>
@@ -6710,10 +6710,10 @@
         <v>13</v>
       </c>
       <c r="F181" t="n">
-        <v>6106.1602</v>
+        <v>252397</v>
       </c>
       <c r="G181" t="n">
-        <v>13.09999999999998</v>
+        <v>13.045</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6736,19 +6736,19 @@
         <v>13</v>
       </c>
       <c r="C182" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D182" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
       </c>
       <c r="F182" t="n">
-        <v>179.9167</v>
+        <v>6106.1602</v>
       </c>
       <c r="G182" t="n">
-        <v>13.07999999999998</v>
+        <v>13.04833333333334</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +6780,10 @@
         <v>13</v>
       </c>
       <c r="F183" t="n">
-        <v>15842</v>
+        <v>179.9167</v>
       </c>
       <c r="G183" t="n">
-        <v>13.05999999999998</v>
+        <v>13.05</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,10 +6815,10 @@
         <v>13</v>
       </c>
       <c r="F184" t="n">
-        <v>34</v>
+        <v>15842</v>
       </c>
       <c r="G184" t="n">
-        <v>13.03999999999999</v>
+        <v>13.05166666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6850,10 +6850,10 @@
         <v>13</v>
       </c>
       <c r="F185" t="n">
-        <v>1266</v>
+        <v>34</v>
       </c>
       <c r="G185" t="n">
-        <v>13.01999999999999</v>
+        <v>13.04666666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6885,10 +6885,10 @@
         <v>13</v>
       </c>
       <c r="F186" t="n">
-        <v>10</v>
+        <v>1266</v>
       </c>
       <c r="G186" t="n">
-        <v>12.99999999999999</v>
+        <v>13.04666666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6920,10 +6920,10 @@
         <v>13</v>
       </c>
       <c r="F187" t="n">
-        <v>337787.7692</v>
+        <v>10</v>
       </c>
       <c r="G187" t="n">
-        <v>12.99999999999999</v>
+        <v>13.04666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C188" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D188" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E188" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F188" t="n">
-        <v>48649.7112</v>
+        <v>337787.7692</v>
       </c>
       <c r="G188" t="n">
-        <v>12.97999999999999</v>
+        <v>13.04666666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="C189" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D189" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E189" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F189" t="n">
-        <v>3345.2671</v>
+        <v>48649.7112</v>
       </c>
       <c r="G189" t="n">
-        <v>12.99999999999999</v>
+        <v>13.04500000000001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7025,10 @@
         <v>13.1</v>
       </c>
       <c r="F190" t="n">
-        <v>25680.687</v>
+        <v>3345.2671</v>
       </c>
       <c r="G190" t="n">
-        <v>13.01999999999999</v>
+        <v>13.04</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C191" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D191" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E191" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F191" t="n">
-        <v>8744.7161</v>
+        <v>25680.687</v>
       </c>
       <c r="G191" t="n">
-        <v>12.99999999999999</v>
+        <v>13.03500000000001</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7095,10 +7095,10 @@
         <v>12.9</v>
       </c>
       <c r="F192" t="n">
-        <v>91083.9929</v>
+        <v>8744.7161</v>
       </c>
       <c r="G192" t="n">
-        <v>12.97999999999999</v>
+        <v>13.02666666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C193" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D193" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E193" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F193" t="n">
-        <v>11</v>
+        <v>91083.9929</v>
       </c>
       <c r="G193" t="n">
-        <v>12.99999999999999</v>
+        <v>13.02333333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>13</v>
       </c>
       <c r="F194" t="n">
-        <v>4195.8461</v>
+        <v>11</v>
       </c>
       <c r="G194" t="n">
-        <v>12.97999999999999</v>
+        <v>13.02166666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7200,10 +7200,10 @@
         <v>13</v>
       </c>
       <c r="F195" t="n">
-        <v>23438.5961</v>
+        <v>4195.8461</v>
       </c>
       <c r="G195" t="n">
-        <v>12.95999999999999</v>
+        <v>13.02166666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7235,10 +7235,10 @@
         <v>13</v>
       </c>
       <c r="F196" t="n">
-        <v>26435.1915</v>
+        <v>23438.5961</v>
       </c>
       <c r="G196" t="n">
-        <v>12.97999999999999</v>
+        <v>13.02166666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C197" t="n">
         <v>13</v>
       </c>
       <c r="D197" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
       </c>
       <c r="F197" t="n">
-        <v>24</v>
+        <v>26435.1915</v>
       </c>
       <c r="G197" t="n">
-        <v>12.99999999999999</v>
+        <v>13.01666666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C198" t="n">
         <v>13</v>
       </c>
       <c r="D198" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
       </c>
       <c r="F198" t="n">
-        <v>4537</v>
+        <v>24</v>
       </c>
       <c r="G198" t="n">
-        <v>12.99999999999999</v>
+        <v>13.01500000000001</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C199" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D199" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E199" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F199" t="n">
-        <v>11</v>
+        <v>4537</v>
       </c>
       <c r="G199" t="n">
-        <v>13.01999999999999</v>
+        <v>13.01333333333334</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,10 +7375,10 @@
         <v>13.1</v>
       </c>
       <c r="F200" t="n">
-        <v>229007.6335877863</v>
+        <v>11</v>
       </c>
       <c r="G200" t="n">
-        <v>13.03999999999999</v>
+        <v>13.01500000000001</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C201" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D201" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E201" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F201" t="n">
-        <v>10000</v>
+        <v>229007.6335877863</v>
       </c>
       <c r="G201" t="n">
-        <v>13.03999999999999</v>
+        <v>13.01666666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7436,19 +7436,19 @@
         <v>13</v>
       </c>
       <c r="C202" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D202" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
       </c>
       <c r="F202" t="n">
-        <v>21</v>
+        <v>10000</v>
       </c>
       <c r="G202" t="n">
-        <v>13.05999999999998</v>
+        <v>13.01666666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7471,19 +7471,19 @@
         <v>13</v>
       </c>
       <c r="C203" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D203" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
       </c>
       <c r="F203" t="n">
-        <v>73478.36810000001</v>
+        <v>21</v>
       </c>
       <c r="G203" t="n">
-        <v>13.05999999999998</v>
+        <v>13.01833333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>13</v>
       </c>
       <c r="F204" t="n">
-        <v>50000</v>
+        <v>73478.36810000001</v>
       </c>
       <c r="G204" t="n">
-        <v>13.03999999999999</v>
+        <v>13.01833333333334</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C205" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D205" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E205" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F205" t="n">
-        <v>12</v>
+        <v>50000</v>
       </c>
       <c r="G205" t="n">
-        <v>13.03999999999999</v>
+        <v>13.01833333333334</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C206" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D206" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E206" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F206" t="n">
-        <v>50969.9017</v>
+        <v>12</v>
       </c>
       <c r="G206" t="n">
-        <v>13.03999999999999</v>
+        <v>13.02000000000001</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C207" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D207" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E207" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F207" t="n">
-        <v>12739.4575</v>
+        <v>50969.9017</v>
       </c>
       <c r="G207" t="n">
-        <v>12.99999999999999</v>
+        <v>13.02000000000001</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>12.9</v>
       </c>
       <c r="F208" t="n">
-        <v>26507.4589</v>
+        <v>12739.4575</v>
       </c>
       <c r="G208" t="n">
-        <v>12.97999999999999</v>
+        <v>13.01833333333334</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C209" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D209" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E209" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F209" t="n">
-        <v>11</v>
+        <v>26507.4589</v>
       </c>
       <c r="G209" t="n">
-        <v>12.97999999999999</v>
+        <v>13.01666666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C210" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D210" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E210" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F210" t="n">
-        <v>350000</v>
+        <v>11</v>
       </c>
       <c r="G210" t="n">
-        <v>12.93999999999999</v>
+        <v>13.01666666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7760,10 +7760,10 @@
         <v>12.9</v>
       </c>
       <c r="F211" t="n">
-        <v>42061.5116</v>
+        <v>350000</v>
       </c>
       <c r="G211" t="n">
-        <v>12.91999999999999</v>
+        <v>13.01500000000001</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C212" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D212" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E212" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F212" t="n">
-        <v>10</v>
+        <v>42061.5116</v>
       </c>
       <c r="G212" t="n">
-        <v>12.93999999999999</v>
+        <v>13.01166666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7830,10 +7830,10 @@
         <v>13</v>
       </c>
       <c r="F213" t="n">
-        <v>22824</v>
+        <v>10</v>
       </c>
       <c r="G213" t="n">
-        <v>12.95999999999999</v>
+        <v>13.01166666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7865,10 +7865,10 @@
         <v>13</v>
       </c>
       <c r="F214" t="n">
-        <v>5143</v>
+        <v>22824</v>
       </c>
       <c r="G214" t="n">
-        <v>12.95999999999999</v>
+        <v>13.01166666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7900,10 +7900,10 @@
         <v>13</v>
       </c>
       <c r="F215" t="n">
-        <v>55802</v>
+        <v>5143</v>
       </c>
       <c r="G215" t="n">
-        <v>12.97999999999999</v>
+        <v>13.01166666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7935,10 +7935,10 @@
         <v>13</v>
       </c>
       <c r="F216" t="n">
-        <v>2000</v>
+        <v>55802</v>
       </c>
       <c r="G216" t="n">
-        <v>12.99999999999999</v>
+        <v>13.01166666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C217" t="n">
         <v>13</v>
@@ -7967,13 +7967,13 @@
         <v>13</v>
       </c>
       <c r="E217" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F217" t="n">
-        <v>4433.615384615385</v>
+        <v>2000</v>
       </c>
       <c r="G217" t="n">
-        <v>12.99999999999999</v>
+        <v>13.01333333333334</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C218" t="n">
         <v>13</v>
@@ -8002,13 +8002,13 @@
         <v>13</v>
       </c>
       <c r="E218" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F218" t="n">
-        <v>96328.5384</v>
+        <v>4433.615384615385</v>
       </c>
       <c r="G218" t="n">
-        <v>12.99999999999999</v>
+        <v>13.01333333333334</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8040,10 +8040,10 @@
         <v>13</v>
       </c>
       <c r="F219" t="n">
-        <v>14016.2307</v>
+        <v>96328.5384</v>
       </c>
       <c r="G219" t="n">
-        <v>12.99999999999999</v>
+        <v>13.01333333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>13</v>
       </c>
       <c r="F220" t="n">
-        <v>46153.8461</v>
+        <v>14016.2307</v>
       </c>
       <c r="G220" t="n">
-        <v>12.99999999999999</v>
+        <v>13.01333333333334</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C221" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D221" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E221" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F221" t="n">
-        <v>39995.5135</v>
+        <v>46153.8461</v>
       </c>
       <c r="G221" t="n">
-        <v>12.97999999999999</v>
+        <v>13.01500000000001</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C222" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D222" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E222" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F222" t="n">
-        <v>10</v>
+        <v>39995.5135</v>
       </c>
       <c r="G222" t="n">
-        <v>12.97999999999999</v>
+        <v>13.01500000000001</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C223" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D223" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E223" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F223" t="n">
-        <v>157699.1584</v>
+        <v>10</v>
       </c>
       <c r="G223" t="n">
-        <v>12.93999999999999</v>
+        <v>13.01500000000001</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C224" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D224" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E224" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F224" t="n">
-        <v>11</v>
+        <v>157699.1584</v>
       </c>
       <c r="G224" t="n">
-        <v>12.93999999999999</v>
+        <v>13.01</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8250,10 +8250,10 @@
         <v>13</v>
       </c>
       <c r="F225" t="n">
-        <v>58215.373</v>
+        <v>11</v>
       </c>
       <c r="G225" t="n">
-        <v>12.93999999999999</v>
+        <v>13.00833333333334</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C226" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D226" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E226" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F226" t="n">
-        <v>82350.0001</v>
+        <v>58215.373</v>
       </c>
       <c r="G226" t="n">
-        <v>12.93999999999999</v>
+        <v>13.005</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C227" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D227" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E227" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F227" t="n">
-        <v>352779.6098</v>
+        <v>82350.0001</v>
       </c>
       <c r="G227" t="n">
-        <v>12.89999999999999</v>
+        <v>13.00166666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C228" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D228" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E228" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F228" t="n">
-        <v>10000</v>
+        <v>352779.6098</v>
       </c>
       <c r="G228" t="n">
-        <v>12.91999999999999</v>
+        <v>12.99833333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8390,10 +8390,10 @@
         <v>12.9</v>
       </c>
       <c r="F229" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G229" t="n">
-        <v>12.89999999999999</v>
+        <v>12.995</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8425,10 +8425,10 @@
         <v>12.9</v>
       </c>
       <c r="F230" t="n">
-        <v>20288.5271</v>
+        <v>5000</v>
       </c>
       <c r="G230" t="n">
-        <v>12.87999999999999</v>
+        <v>12.99166666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C231" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D231" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E231" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F231" t="n">
-        <v>91498.67720000001</v>
+        <v>20288.5271</v>
       </c>
       <c r="G231" t="n">
-        <v>12.85999999999999</v>
+        <v>12.99</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8495,10 +8495,10 @@
         <v>12.8</v>
       </c>
       <c r="F232" t="n">
-        <v>297999.2263</v>
+        <v>91498.67720000001</v>
       </c>
       <c r="G232" t="n">
-        <v>12.85999999999999</v>
+        <v>12.98666666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8530,10 +8530,10 @@
         <v>12.8</v>
       </c>
       <c r="F233" t="n">
-        <v>11812.2402</v>
+        <v>297999.2263</v>
       </c>
       <c r="G233" t="n">
-        <v>12.83999999999999</v>
+        <v>12.98333333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C234" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D234" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E234" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F234" t="n">
-        <v>1788.4576</v>
+        <v>11812.2402</v>
       </c>
       <c r="G234" t="n">
-        <v>12.83999999999999</v>
+        <v>12.98</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8600,10 +8600,10 @@
         <v>12.9</v>
       </c>
       <c r="F235" t="n">
-        <v>1992.5131</v>
+        <v>1788.4576</v>
       </c>
       <c r="G235" t="n">
-        <v>12.83999999999999</v>
+        <v>12.97833333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8632,13 +8632,13 @@
         <v>12.9</v>
       </c>
       <c r="E236" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F236" t="n">
-        <v>3274.4088</v>
+        <v>1992.5131</v>
       </c>
       <c r="G236" t="n">
-        <v>12.85999999999999</v>
+        <v>12.97666666666666</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8667,13 +8667,13 @@
         <v>12.9</v>
       </c>
       <c r="E237" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F237" t="n">
-        <v>18011.7715</v>
+        <v>3274.4088</v>
       </c>
       <c r="G237" t="n">
-        <v>12.87999999999999</v>
+        <v>12.97666666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8705,10 +8705,10 @@
         <v>12.9</v>
       </c>
       <c r="F238" t="n">
-        <v>518.1787</v>
+        <v>18011.7715</v>
       </c>
       <c r="G238" t="n">
-        <v>12.9</v>
+        <v>12.97333333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8740,10 +8740,10 @@
         <v>12.9</v>
       </c>
       <c r="F239" t="n">
-        <v>465.9591</v>
+        <v>518.1787</v>
       </c>
       <c r="G239" t="n">
-        <v>12.9</v>
+        <v>12.97</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8775,10 +8775,10 @@
         <v>12.9</v>
       </c>
       <c r="F240" t="n">
-        <v>419.002</v>
+        <v>465.9591</v>
       </c>
       <c r="G240" t="n">
-        <v>12.9</v>
+        <v>12.96666666666666</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8810,10 +8810,10 @@
         <v>12.9</v>
       </c>
       <c r="F241" t="n">
-        <v>396.0793</v>
+        <v>419.002</v>
       </c>
       <c r="G241" t="n">
-        <v>12.9</v>
+        <v>12.96333333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8845,10 +8845,10 @@
         <v>12.9</v>
       </c>
       <c r="F242" t="n">
-        <v>184.0964</v>
+        <v>396.0793</v>
       </c>
       <c r="G242" t="n">
-        <v>12.9</v>
+        <v>12.95999999999999</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8880,10 +8880,10 @@
         <v>12.9</v>
       </c>
       <c r="F243" t="n">
-        <v>459.3747</v>
+        <v>184.0964</v>
       </c>
       <c r="G243" t="n">
-        <v>12.9</v>
+        <v>12.95833333333333</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8915,10 +8915,10 @@
         <v>12.9</v>
       </c>
       <c r="F244" t="n">
-        <v>273.9613</v>
+        <v>459.3747</v>
       </c>
       <c r="G244" t="n">
-        <v>12.9</v>
+        <v>12.95666666666666</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C245" t="n">
         <v>12.9</v>
@@ -8947,13 +8947,13 @@
         <v>12.9</v>
       </c>
       <c r="E245" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F245" t="n">
-        <v>50246.5309</v>
+        <v>273.9613</v>
       </c>
       <c r="G245" t="n">
-        <v>12.9</v>
+        <v>12.95499999999999</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,7 +8973,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C246" t="n">
         <v>12.9</v>
@@ -8982,13 +8982,13 @@
         <v>12.9</v>
       </c>
       <c r="E246" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F246" t="n">
-        <v>221.5266</v>
+        <v>50246.5309</v>
       </c>
       <c r="G246" t="n">
-        <v>12.9</v>
+        <v>12.95333333333332</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>12.9</v>
       </c>
       <c r="F247" t="n">
-        <v>340.3392</v>
+        <v>221.5266</v>
       </c>
       <c r="G247" t="n">
-        <v>12.9</v>
+        <v>12.95166666666666</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9055,10 +9055,10 @@
         <v>12.9</v>
       </c>
       <c r="F248" t="n">
-        <v>144.9012</v>
+        <v>340.3392</v>
       </c>
       <c r="G248" t="n">
-        <v>12.9</v>
+        <v>12.94999999999999</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>12.9</v>
       </c>
       <c r="D249" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E249" t="n">
         <v>12.9</v>
       </c>
       <c r="F249" t="n">
-        <v>3330.2988</v>
+        <v>144.9012</v>
       </c>
       <c r="G249" t="n">
-        <v>12.9</v>
+        <v>12.94999999999999</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9119,16 +9119,16 @@
         <v>12.9</v>
       </c>
       <c r="D250" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E250" t="n">
         <v>12.9</v>
       </c>
       <c r="F250" t="n">
-        <v>117.1679</v>
+        <v>3330.2988</v>
       </c>
       <c r="G250" t="n">
-        <v>12.9</v>
+        <v>12.94666666666666</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9148,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C251" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D251" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E251" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F251" t="n">
-        <v>11</v>
+        <v>117.1679</v>
       </c>
       <c r="G251" t="n">
-        <v>12.91999999999999</v>
+        <v>12.94333333333332</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,22 +9183,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C252" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="D252" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E252" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="F252" t="n">
-        <v>255441.9515</v>
+        <v>11</v>
       </c>
       <c r="G252" t="n">
-        <v>12.87999999999999</v>
+        <v>12.94499999999999</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9218,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C253" t="n">
         <v>12.7</v>
       </c>
-      <c r="C253" t="n">
-        <v>12.6</v>
-      </c>
       <c r="D253" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E253" t="n">
         <v>12.7</v>
       </c>
-      <c r="E253" t="n">
-        <v>12.6</v>
-      </c>
       <c r="F253" t="n">
-        <v>246060.0085</v>
+        <v>255441.9515</v>
       </c>
       <c r="G253" t="n">
-        <v>12.81999999999999</v>
+        <v>12.94166666666666</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9253,22 +9253,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C254" t="n">
         <v>12.6</v>
       </c>
       <c r="D254" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E254" t="n">
         <v>12.6</v>
       </c>
       <c r="F254" t="n">
-        <v>287.8058</v>
+        <v>246060.0085</v>
       </c>
       <c r="G254" t="n">
-        <v>12.75999999999999</v>
+        <v>12.93499999999999</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9291,19 +9291,19 @@
         <v>12.6</v>
       </c>
       <c r="C255" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D255" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E255" t="n">
         <v>12.6</v>
       </c>
       <c r="F255" t="n">
-        <v>6878.7192</v>
+        <v>287.8058</v>
       </c>
       <c r="G255" t="n">
-        <v>12.71999999999999</v>
+        <v>12.92833333333332</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9323,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C256" t="n">
         <v>12.7</v>
       </c>
-      <c r="C256" t="n">
-        <v>12.8</v>
-      </c>
       <c r="D256" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E256" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F256" t="n">
-        <v>77211.6406</v>
+        <v>6878.7192</v>
       </c>
       <c r="G256" t="n">
-        <v>12.67999999999999</v>
+        <v>12.92333333333332</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9361,19 +9361,19 @@
         <v>12.7</v>
       </c>
       <c r="C257" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D257" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E257" t="n">
         <v>12.7</v>
       </c>
       <c r="F257" t="n">
-        <v>3690.9305</v>
+        <v>77211.6406</v>
       </c>
       <c r="G257" t="n">
-        <v>12.67999999999999</v>
+        <v>12.91999999999999</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9405,10 +9405,10 @@
         <v>12.7</v>
       </c>
       <c r="F258" t="n">
-        <v>20407.874</v>
+        <v>3690.9305</v>
       </c>
       <c r="G258" t="n">
-        <v>12.69999999999999</v>
+        <v>12.91499999999999</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C259" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D259" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E259" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F259" t="n">
-        <v>35717.6099</v>
+        <v>20407.874</v>
       </c>
       <c r="G259" t="n">
-        <v>12.69999999999999</v>
+        <v>12.90999999999999</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C260" t="n">
         <v>12.6</v>
       </c>
       <c r="D260" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E260" t="n">
         <v>12.6</v>
       </c>
       <c r="F260" t="n">
-        <v>470246.0085</v>
+        <v>35717.6099</v>
       </c>
       <c r="G260" t="n">
-        <v>12.67999999999999</v>
+        <v>12.90166666666666</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9498,22 +9498,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C261" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D261" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E261" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F261" t="n">
-        <v>270666.88</v>
+        <v>470246.0085</v>
       </c>
       <c r="G261" t="n">
-        <v>12.61999999999999</v>
+        <v>12.89333333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9545,10 +9545,10 @@
         <v>12.5</v>
       </c>
       <c r="F262" t="n">
-        <v>37030.385</v>
+        <v>270666.88</v>
       </c>
       <c r="G262" t="n">
-        <v>12.57999999999999</v>
+        <v>12.88499999999999</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9580,10 +9580,10 @@
         <v>12.5</v>
       </c>
       <c r="F263" t="n">
-        <v>35.9214</v>
+        <v>37030.385</v>
       </c>
       <c r="G263" t="n">
-        <v>12.53999999999999</v>
+        <v>12.87499999999999</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9615,10 +9615,10 @@
         <v>12.5</v>
       </c>
       <c r="F264" t="n">
-        <v>179.55</v>
+        <v>35.9214</v>
       </c>
       <c r="G264" t="n">
-        <v>12.51999999999999</v>
+        <v>12.86666666666666</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9641,19 +9641,19 @@
         <v>12.5</v>
       </c>
       <c r="C265" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D265" t="n">
         <v>12.5</v>
       </c>
       <c r="E265" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F265" t="n">
-        <v>77026.1881</v>
+        <v>179.55</v>
       </c>
       <c r="G265" t="n">
-        <v>12.47999999999999</v>
+        <v>12.85833333333333</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9673,22 +9673,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C266" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D266" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E266" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F266" t="n">
-        <v>40790.2658</v>
+        <v>77026.1881</v>
       </c>
       <c r="G266" t="n">
-        <v>12.49999999999999</v>
+        <v>12.84666666666666</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9720,10 +9720,10 @@
         <v>12.6</v>
       </c>
       <c r="F267" t="n">
-        <v>6740.4941</v>
+        <v>40790.2658</v>
       </c>
       <c r="G267" t="n">
-        <v>12.51999999999999</v>
+        <v>12.83999999999999</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9755,23 +9755,19 @@
         <v>12.6</v>
       </c>
       <c r="F268" t="n">
-        <v>20419.6915</v>
+        <v>6740.4941</v>
       </c>
       <c r="G268" t="n">
-        <v>12.53999999999999</v>
+        <v>12.83499999999999</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K268" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
@@ -9782,22 +9778,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C269" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D269" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E269" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F269" t="n">
-        <v>1082.9132</v>
+        <v>20419.6915</v>
       </c>
       <c r="G269" t="n">
-        <v>12.57999999999999</v>
+        <v>12.82999999999999</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9806,14 +9802,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9823,7 +9813,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C270" t="n">
         <v>12.7</v>
@@ -9832,1722 +9822,1464 @@
         <v>12.7</v>
       </c>
       <c r="E270" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1082.9132</v>
+      </c>
+      <c r="G270" t="n">
+        <v>12.82499999999999</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
         <v>12.6</v>
       </c>
-      <c r="F270" t="n">
+      <c r="C271" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D271" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E271" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F271" t="n">
         <v>116889.4217</v>
       </c>
-      <c r="G270" t="n">
-        <v>12.63999999999999</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
+      <c r="G271" t="n">
+        <v>12.82166666666666</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C272" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D272" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E272" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F272" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G272" t="n">
+        <v>12.81833333333333</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
         <v>12.6</v>
       </c>
-      <c r="L270" t="inlineStr">
+      <c r="C273" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D273" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E273" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F273" t="n">
+        <v>35769.1844</v>
+      </c>
+      <c r="G273" t="n">
+        <v>12.81166666666666</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C274" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D274" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E274" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F274" t="n">
+        <v>55814.5029</v>
+      </c>
+      <c r="G274" t="n">
+        <v>12.805</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C275" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D275" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E275" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F275" t="n">
+        <v>9580.161700000001</v>
+      </c>
+      <c r="G275" t="n">
+        <v>12.79833333333333</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C276" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D276" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E276" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F276" t="n">
+        <v>183206.2</v>
+      </c>
+      <c r="G276" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C277" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D277" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E277" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F277" t="n">
+        <v>36385.0107</v>
+      </c>
+      <c r="G277" t="n">
+        <v>12.78166666666666</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C278" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D278" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E278" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F278" t="n">
+        <v>437.7096</v>
+      </c>
+      <c r="G278" t="n">
+        <v>12.77333333333333</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C279" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D279" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E279" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F279" t="n">
+        <v>292872.3477</v>
+      </c>
+      <c r="G279" t="n">
+        <v>12.76333333333333</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C280" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D280" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E280" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F280" t="n">
+        <v>61078.9635</v>
+      </c>
+      <c r="G280" t="n">
+        <v>12.75166666666666</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C281" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D281" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E281" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F281" t="n">
+        <v>15737.2808</v>
+      </c>
+      <c r="G281" t="n">
+        <v>12.74166666666666</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C282" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D282" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E282" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F282" t="n">
+        <v>950</v>
+      </c>
+      <c r="G282" t="n">
+        <v>12.735</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C283" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D283" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E283" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F283" t="n">
+        <v>96328.5384</v>
+      </c>
+      <c r="G283" t="n">
+        <v>12.725</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C284" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D284" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E284" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F284" t="n">
+        <v>23</v>
+      </c>
+      <c r="G284" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C285" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D285" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E285" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>692.8</v>
+      </c>
+      <c r="G285" t="n">
+        <v>12.71166666666666</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C286" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D286" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E286" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F286" t="n">
+        <v>343</v>
+      </c>
+      <c r="G286" t="n">
+        <v>12.70166666666666</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C287" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D287" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E287" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F287" t="n">
+        <v>133091.4472</v>
+      </c>
+      <c r="G287" t="n">
+        <v>12.695</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C288" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D288" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E288" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F288" t="n">
+        <v>160000</v>
+      </c>
+      <c r="G288" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C289" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D289" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E289" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F289" t="n">
+        <v>830.7528</v>
+      </c>
+      <c r="G289" t="n">
+        <v>12.68333333333333</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C290" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D290" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E290" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F290" t="n">
+        <v>33467.01</v>
+      </c>
+      <c r="G290" t="n">
+        <v>12.67666666666667</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C291" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D291" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E291" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F291" t="n">
+        <v>21</v>
+      </c>
+      <c r="G291" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C292" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D292" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E292" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F292" t="n">
+        <v>10</v>
+      </c>
+      <c r="G292" t="n">
+        <v>12.66333333333333</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C293" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D293" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E293" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F293" t="n">
+        <v>23319.0482</v>
+      </c>
+      <c r="G293" t="n">
+        <v>12.65833333333333</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C294" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D294" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E294" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F294" t="n">
+        <v>4190</v>
+      </c>
+      <c r="G294" t="n">
+        <v>12.65333333333333</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C295" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D295" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E295" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F295" t="n">
+        <v>167733.9512</v>
+      </c>
+      <c r="G295" t="n">
+        <v>12.64333333333333</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C296" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D296" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E296" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F296" t="n">
+        <v>556131.5264</v>
+      </c>
+      <c r="G296" t="n">
+        <v>12.635</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C297" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D297" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E297" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F297" t="n">
+        <v>10</v>
+      </c>
+      <c r="G297" t="n">
+        <v>12.62333333333333</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C298" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D298" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E298" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F298" t="n">
+        <v>12</v>
+      </c>
+      <c r="G298" t="n">
+        <v>12.615</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C299" t="n">
+        <v>12</v>
+      </c>
+      <c r="D299" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E299" t="n">
+        <v>12</v>
+      </c>
+      <c r="F299" t="n">
+        <v>444826.4142</v>
+      </c>
+      <c r="G299" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>12</v>
+      </c>
+      <c r="C300" t="n">
+        <v>12</v>
+      </c>
+      <c r="D300" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E300" t="n">
+        <v>12</v>
+      </c>
+      <c r="F300" t="n">
+        <v>39463.8765</v>
+      </c>
+      <c r="G300" t="n">
+        <v>12.585</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>12</v>
+      </c>
+      <c r="C301" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D301" t="n">
+        <v>12</v>
+      </c>
+      <c r="E301" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F301" t="n">
+        <v>503782.219</v>
+      </c>
+      <c r="G301" t="n">
+        <v>12.56833333333334</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C302" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D302" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E302" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F302" t="n">
+        <v>340855.3115</v>
+      </c>
+      <c r="G302" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C303" t="n">
+        <v>12</v>
+      </c>
+      <c r="D303" t="n">
+        <v>12</v>
+      </c>
+      <c r="E303" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F303" t="n">
+        <v>57969.4904</v>
+      </c>
+      <c r="G303" t="n">
+        <v>12.535</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C304" t="n">
+        <v>12</v>
+      </c>
+      <c r="D304" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E304" t="n">
+        <v>12</v>
+      </c>
+      <c r="F304" t="n">
+        <v>748.2687</v>
+      </c>
+      <c r="G304" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
+      <c r="M304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C305" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D305" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E305" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F305" t="n">
+        <v>123.9669</v>
+      </c>
+      <c r="G305" t="n">
+        <v>12.50666666666667</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
+      <c r="M305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C306" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D306" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E306" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F306" t="n">
+        <v>236803.4521</v>
+      </c>
+      <c r="G306" t="n">
+        <v>12.495</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
+      <c r="M306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C307" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D307" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E307" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F307" t="n">
+        <v>71502.9999</v>
+      </c>
+      <c r="G307" t="n">
+        <v>12.48333333333334</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
+      <c r="M307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C308" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D308" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E308" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F308" t="n">
+        <v>13</v>
+      </c>
+      <c r="G308" t="n">
+        <v>12.47333333333334</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C309" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D309" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E309" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F309" t="n">
+        <v>10</v>
+      </c>
+      <c r="G309" t="n">
+        <v>12.46166666666667</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C310" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D310" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E310" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F310" t="n">
+        <v>11</v>
+      </c>
+      <c r="G310" t="n">
+        <v>12.45166666666667</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
+      <c r="M310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C311" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D311" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E311" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F311" t="n">
+        <v>40030</v>
+      </c>
+      <c r="G311" t="n">
+        <v>12.44000000000001</v>
+      </c>
+      <c r="H311" t="n">
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C271" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D271" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E271" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F271" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G271" t="n">
-        <v>12.65999999999999</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C272" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D272" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E272" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F272" t="n">
-        <v>35769.1844</v>
-      </c>
-      <c r="G272" t="n">
-        <v>12.65999999999999</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C273" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D273" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E273" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F273" t="n">
-        <v>55814.5029</v>
-      </c>
-      <c r="G273" t="n">
-        <v>12.65999999999999</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C274" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D274" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E274" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F274" t="n">
-        <v>9580.161700000001</v>
-      </c>
-      <c r="G274" t="n">
-        <v>12.63999999999999</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C275" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D275" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E275" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F275" t="n">
-        <v>183206.2</v>
-      </c>
-      <c r="G275" t="n">
-        <v>12.59999999999999</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C276" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D276" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E276" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F276" t="n">
-        <v>36385.0107</v>
-      </c>
-      <c r="G276" t="n">
-        <v>12.55999999999998</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C277" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D277" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E277" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F277" t="n">
-        <v>437.7096</v>
-      </c>
-      <c r="G277" t="n">
-        <v>12.53999999999998</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C278" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D278" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E278" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F278" t="n">
-        <v>292872.3477</v>
-      </c>
-      <c r="G278" t="n">
-        <v>12.49999999999998</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C279" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D279" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E279" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F279" t="n">
-        <v>61078.9635</v>
-      </c>
-      <c r="G279" t="n">
-        <v>12.43999999999999</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C280" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D280" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E280" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F280" t="n">
-        <v>15737.2808</v>
-      </c>
-      <c r="G280" t="n">
-        <v>12.41999999999998</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C281" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D281" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E281" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F281" t="n">
-        <v>950</v>
-      </c>
-      <c r="G281" t="n">
-        <v>12.41999999999998</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C282" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D282" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E282" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F282" t="n">
-        <v>96328.5384</v>
-      </c>
-      <c r="G282" t="n">
-        <v>12.39999999999999</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C283" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D283" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E283" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F283" t="n">
-        <v>23</v>
-      </c>
-      <c r="G283" t="n">
-        <v>12.41999999999999</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C284" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D284" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E284" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F284" t="n">
-        <v>692.8</v>
-      </c>
-      <c r="G284" t="n">
-        <v>12.45999999999999</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K284" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C285" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D285" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E285" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F285" t="n">
-        <v>343</v>
-      </c>
-      <c r="G285" t="n">
-        <v>12.45999999999999</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C286" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D286" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E286" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F286" t="n">
-        <v>133091.4472</v>
-      </c>
-      <c r="G286" t="n">
-        <v>12.45999999999999</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C287" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D287" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E287" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F287" t="n">
-        <v>160000</v>
-      </c>
-      <c r="G287" t="n">
-        <v>12.47999999999999</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C288" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D288" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E288" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F288" t="n">
-        <v>830.7528</v>
-      </c>
-      <c r="G288" t="n">
-        <v>12.47999999999999</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C289" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D289" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E289" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F289" t="n">
-        <v>33467.01</v>
-      </c>
-      <c r="G289" t="n">
-        <v>12.47999999999999</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C290" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D290" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E290" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F290" t="n">
-        <v>21</v>
-      </c>
-      <c r="G290" t="n">
-        <v>12.49999999999999</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C291" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D291" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E291" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F291" t="n">
-        <v>10</v>
-      </c>
-      <c r="G291" t="n">
-        <v>12.47999999999999</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C292" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D292" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E292" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F292" t="n">
-        <v>23319.0482</v>
-      </c>
-      <c r="G292" t="n">
-        <v>12.47999999999999</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C293" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D293" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E293" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F293" t="n">
-        <v>4190</v>
-      </c>
-      <c r="G293" t="n">
-        <v>12.47999999999999</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C294" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D294" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E294" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F294" t="n">
-        <v>167733.9512</v>
-      </c>
-      <c r="G294" t="n">
-        <v>12.43999999999999</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C295" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D295" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E295" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F295" t="n">
-        <v>556131.5264</v>
-      </c>
-      <c r="G295" t="n">
-        <v>12.41999999999999</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C296" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D296" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E296" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F296" t="n">
-        <v>10</v>
-      </c>
-      <c r="G296" t="n">
-        <v>12.37999999999999</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C297" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D297" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E297" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F297" t="n">
-        <v>12</v>
-      </c>
-      <c r="G297" t="n">
-        <v>12.35999999999999</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C298" t="n">
-        <v>12</v>
-      </c>
-      <c r="D298" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E298" t="n">
-        <v>12</v>
-      </c>
-      <c r="F298" t="n">
-        <v>444826.4142</v>
-      </c>
-      <c r="G298" t="n">
-        <v>12.25999999999999</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>12</v>
-      </c>
-      <c r="C299" t="n">
-        <v>12</v>
-      </c>
-      <c r="D299" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E299" t="n">
-        <v>12</v>
-      </c>
-      <c r="F299" t="n">
-        <v>39463.8765</v>
-      </c>
-      <c r="G299" t="n">
-        <v>12.19999999999999</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>12</v>
-      </c>
-      <c r="C300" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D300" t="n">
-        <v>12</v>
-      </c>
-      <c r="E300" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F300" t="n">
-        <v>503782.219</v>
-      </c>
-      <c r="G300" t="n">
-        <v>12.09999999999999</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C301" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D301" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E301" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F301" t="n">
-        <v>340855.3115</v>
-      </c>
-      <c r="G301" t="n">
-        <v>12.01999999999999</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C302" t="n">
-        <v>12</v>
-      </c>
-      <c r="D302" t="n">
-        <v>12</v>
-      </c>
-      <c r="E302" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F302" t="n">
-        <v>57969.4904</v>
-      </c>
-      <c r="G302" t="n">
-        <v>11.93999999999999</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C303" t="n">
-        <v>12</v>
-      </c>
-      <c r="D303" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E303" t="n">
-        <v>12</v>
-      </c>
-      <c r="F303" t="n">
-        <v>748.2687</v>
-      </c>
-      <c r="G303" t="n">
-        <v>11.93999999999999</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C304" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D304" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E304" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F304" t="n">
-        <v>123.9669</v>
-      </c>
-      <c r="G304" t="n">
-        <v>11.95999999999999</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C305" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D305" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E305" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F305" t="n">
-        <v>236803.4521</v>
-      </c>
-      <c r="G305" t="n">
-        <v>12.01999999999999</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C306" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D306" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E306" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F306" t="n">
-        <v>71502.9999</v>
-      </c>
-      <c r="G306" t="n">
-        <v>12.09999999999999</v>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K306" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C307" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D307" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E307" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F307" t="n">
-        <v>13</v>
-      </c>
-      <c r="G307" t="n">
-        <v>12.15999999999999</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K307" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C308" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D308" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E308" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F308" t="n">
-        <v>10</v>
-      </c>
-      <c r="G308" t="n">
-        <v>12.19999999999999</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K308" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C309" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D309" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E309" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F309" t="n">
-        <v>11</v>
-      </c>
-      <c r="G309" t="n">
-        <v>12.23999999999999</v>
-      </c>
-      <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K309" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C310" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D310" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E310" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F310" t="n">
-        <v>40030</v>
-      </c>
-      <c r="G310" t="n">
-        <v>12.23999999999999</v>
-      </c>
-      <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K310" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C311" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D311" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E311" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F311" t="n">
-        <v>12</v>
-      </c>
-      <c r="G311" t="n">
-        <v>12.27999999999999</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11557,33 +11289,33 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C312" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D312" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E312" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F312" t="n">
-        <v>71.51000000000001</v>
+        <v>12</v>
       </c>
       <c r="G312" t="n">
-        <v>12.27999999999999</v>
+        <v>12.43000000000001</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J312" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11610,21 +11342,21 @@
         <v>12.3</v>
       </c>
       <c r="F313" t="n">
-        <v>161300.813</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="G313" t="n">
-        <v>12.29999999999999</v>
+        <v>12.42333333333334</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J313" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11639,22 +11371,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C314" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D314" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E314" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F314" t="n">
-        <v>180000</v>
+        <v>161300.813</v>
       </c>
       <c r="G314" t="n">
-        <v>12.27999999999999</v>
+        <v>12.41833333333334</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11663,9 +11395,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11692,21 +11422,21 @@
         <v>12.2</v>
       </c>
       <c r="F315" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="G315" t="n">
-        <v>12.27999999999999</v>
+        <v>12.41166666666667</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J315" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11733,10 +11463,10 @@
         <v>12.2</v>
       </c>
       <c r="F316" t="n">
-        <v>23860</v>
+        <v>100000</v>
       </c>
       <c r="G316" t="n">
-        <v>12.23999999999999</v>
+        <v>12.40333333333334</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11745,9 +11475,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11762,33 +11490,33 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C317" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D317" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E317" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F317" t="n">
-        <v>157572.408</v>
+        <v>23860</v>
       </c>
       <c r="G317" t="n">
-        <v>12.19999999999999</v>
+        <v>12.39333333333334</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J317" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11806,30 +11534,30 @@
         <v>12.3</v>
       </c>
       <c r="C318" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D318" t="n">
         <v>12.3</v>
       </c>
       <c r="E318" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F318" t="n">
-        <v>12</v>
+        <v>157572.408</v>
       </c>
       <c r="G318" t="n">
-        <v>12.19999999999999</v>
+        <v>12.38333333333334</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J318" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11844,33 +11572,33 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C319" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D319" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E319" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F319" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G319" t="n">
-        <v>12.19999999999999</v>
+        <v>12.37666666666667</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J319" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11880,6 +11608,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C320" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D320" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E320" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F320" t="n">
+        <v>10</v>
+      </c>
+      <c r="G320" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M320" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-26 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M320"/>
+  <dimension ref="A1:N330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2820</v>
       </c>
       <c r="G2" t="n">
+        <v>12.91333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>12.86166666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>85808.8591</v>
       </c>
       <c r="G3" t="n">
+        <v>12.92666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.86666666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>120658.9675</v>
       </c>
       <c r="G4" t="n">
+        <v>12.93333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>12.86833333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>81246.47319999999</v>
       </c>
       <c r="G5" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H5" t="n">
         <v>12.87</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>34243.0158</v>
       </c>
       <c r="G6" t="n">
+        <v>12.95333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.875</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>11</v>
       </c>
       <c r="G7" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>12.87833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>68895.5575</v>
       </c>
       <c r="G8" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>12.87833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>5905.872</v>
       </c>
       <c r="G9" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.87833333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>607709.8819</v>
       </c>
       <c r="G10" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>12.87833333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>200534.7064</v>
       </c>
       <c r="G11" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>12.87833333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>28077.0069</v>
       </c>
       <c r="G12" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H12" t="n">
         <v>12.87833333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>374182.2215</v>
       </c>
       <c r="G13" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.87833333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>137519.3796</v>
       </c>
       <c r="G14" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>12.88</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>110.2941</v>
       </c>
       <c r="G15" t="n">
+        <v>13.02666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>12.87666666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>177897.4858</v>
       </c>
       <c r="G16" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H16" t="n">
         <v>12.87666666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>11432.2255</v>
       </c>
       <c r="G17" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.87833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>231762.7556</v>
       </c>
       <c r="G18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H18" t="n">
         <v>12.87333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>550.6501</v>
       </c>
       <c r="G19" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>12.87</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>454.7692</v>
       </c>
       <c r="G20" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>12.87</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>23118</v>
       </c>
       <c r="G21" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>12.87166666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>64356.6633</v>
       </c>
       <c r="G22" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H22" t="n">
         <v>12.87666666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>42724.406</v>
       </c>
       <c r="G23" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H23" t="n">
         <v>12.88</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>42724.4061</v>
       </c>
       <c r="G24" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H24" t="n">
         <v>12.88333333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>7692.3076</v>
       </c>
       <c r="G25" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H25" t="n">
         <v>12.88666666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>775.597</v>
       </c>
       <c r="G26" t="n">
+        <v>12.96666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>12.88833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>11</v>
       </c>
       <c r="G27" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.89166666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>3789.6833</v>
       </c>
       <c r="G28" t="n">
+        <v>12.95333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>12.89333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>13030</v>
       </c>
       <c r="G29" t="n">
+        <v>12.95333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>12.895</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>12.9</v>
+        <v>12.96666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>152.6717</v>
       </c>
       <c r="G31" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>12.90333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>3656.7802</v>
       </c>
       <c r="G32" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H32" t="n">
         <v>12.91</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1929.4615</v>
       </c>
       <c r="G33" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.91666666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>37977</v>
       </c>
       <c r="G34" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>12.92166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>33857.4663</v>
       </c>
       <c r="G35" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>12.92833333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>12560.6297</v>
       </c>
       <c r="G36" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>12.935</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>44780.9952</v>
       </c>
       <c r="G37" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>12.94</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>348274.33</v>
       </c>
       <c r="G38" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>12.94333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>320.171</v>
       </c>
       <c r="G39" t="n">
+        <v>13</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.94666666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>13</v>
       </c>
       <c r="G40" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>12.95333333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>78</v>
       </c>
       <c r="G41" t="n">
+        <v>13</v>
+      </c>
+      <c r="H41" t="n">
         <v>12.95833333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>20410</v>
       </c>
       <c r="G42" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>12.96</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>4822.4101</v>
       </c>
       <c r="G43" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>12.96</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>30992.9659</v>
       </c>
       <c r="G44" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H44" t="n">
         <v>12.96166666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>3722.437</v>
       </c>
       <c r="G45" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>12.96333333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>3700.1299</v>
       </c>
       <c r="G46" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>12.965</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>10077</v>
       </c>
       <c r="G47" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>12.97</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2061,15 +2204,18 @@
         <v>12.97333333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>12.97333333333333</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>11</v>
       </c>
       <c r="G49" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H49" t="n">
         <v>12.97666666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>29494.603</v>
       </c>
       <c r="G50" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>12.98</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>4855.87786259542</v>
       </c>
       <c r="G51" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.985</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>2790</v>
       </c>
       <c r="G52" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>12.98833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>68982.07640000001</v>
       </c>
       <c r="G53" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>12.98833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>12</v>
       </c>
       <c r="G54" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>12.99</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>18039</v>
       </c>
       <c r="G55" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>12.995</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>38456</v>
       </c>
       <c r="G56" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.99833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>45333.3797</v>
       </c>
       <c r="G57" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>13.00166666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>92276.32486969697</v>
       </c>
       <c r="G58" t="n">
+        <v>13.05333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>13.00666666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>14031.2594</v>
       </c>
       <c r="G59" t="n">
+        <v>13.07333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>13.01</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>18676.8914</v>
       </c>
       <c r="G60" t="n">
+        <v>13.07999999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>13.01166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>11</v>
       </c>
       <c r="G61" t="n">
+        <v>13.09333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>13.01500000000001</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>53307.1751</v>
       </c>
       <c r="G62" t="n">
+        <v>13.09333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>13.01500000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>8400</v>
       </c>
       <c r="G63" t="n">
+        <v>13.09999999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>13.01666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>15838.0916</v>
       </c>
       <c r="G64" t="n">
+        <v>13.09999999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>13.01833333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>221489.483</v>
       </c>
       <c r="G65" t="n">
+        <v>13.09333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>13.01833333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>11</v>
       </c>
       <c r="G66" t="n">
+        <v>13.09333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>13.02000000000001</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>198834.8918</v>
       </c>
       <c r="G67" t="n">
+        <v>13.09999999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>13.02000000000001</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>44363.1301</v>
       </c>
       <c r="G68" t="n">
+        <v>13.09999999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>13.02000000000001</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>11</v>
       </c>
       <c r="G69" t="n">
+        <v>13.09999999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>13.02166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>10098.6423</v>
       </c>
       <c r="G70" t="n">
+        <v>13.09999999999999</v>
+      </c>
+      <c r="H70" t="n">
         <v>13.02166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>28317.1908</v>
       </c>
       <c r="G71" t="n">
+        <v>13.09999999999999</v>
+      </c>
+      <c r="H71" t="n">
         <v>13.02166666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>171610.9093</v>
       </c>
       <c r="G72" t="n">
+        <v>13.09333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>13.02000000000001</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>363141.5942</v>
       </c>
       <c r="G73" t="n">
+        <v>13.08666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>13.02000000000001</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>58165.1012</v>
       </c>
       <c r="G74" t="n">
+        <v>13.06666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>13.01833333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>339183.5576</v>
       </c>
       <c r="G75" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="H75" t="n">
         <v>13.02000000000001</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>189006.2834</v>
       </c>
       <c r="G76" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H76" t="n">
         <v>13.02000000000001</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>385262.4483</v>
       </c>
       <c r="G77" t="n">
+        <v>13.02666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>13.01833333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>229634.0783</v>
       </c>
       <c r="G78" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>13.01833333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>81021.78389999999</v>
       </c>
       <c r="G79" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>13.01833333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>50024.1097</v>
       </c>
       <c r="G80" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>13.01500000000001</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>204950.7847</v>
       </c>
       <c r="G81" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H81" t="n">
         <v>13.01333333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>11</v>
       </c>
       <c r="G82" t="n">
+        <v>12.95333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>13.01333333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>19614.4843</v>
       </c>
       <c r="G83" t="n">
+        <v>12.94666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>13.01166666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>177051.7592</v>
       </c>
       <c r="G84" t="n">
+        <v>12.93333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>13.01</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>82221.56140000001</v>
       </c>
       <c r="G85" t="n">
+        <v>12.91333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>13.005</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>7356.153846153846</v>
       </c>
       <c r="G86" t="n">
+        <v>12.90666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>13.00666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>9760</v>
       </c>
       <c r="G87" t="n">
+        <v>12.90000000000001</v>
+      </c>
+      <c r="H87" t="n">
         <v>13.005</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>173652.7712</v>
       </c>
       <c r="G88" t="n">
+        <v>12.88666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>13.00333333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>33958.86575384616</v>
       </c>
       <c r="G89" t="n">
+        <v>12.89333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>13.00333333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>4339.9485</v>
       </c>
       <c r="G90" t="n">
+        <v>12.89333333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>13.00166666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>418043.8334</v>
       </c>
       <c r="G91" t="n">
+        <v>12.90666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>13.00333333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>22694.3499</v>
       </c>
       <c r="G92" t="n">
+        <v>12.92666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>13.005</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>93674.59110000001</v>
       </c>
       <c r="G93" t="n">
+        <v>12.94666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>13.00666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>618976.6412</v>
       </c>
       <c r="G94" t="n">
+        <v>12.96666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>13.00833333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>927092.375030303</v>
       </c>
       <c r="G95" t="n">
+        <v>13</v>
+      </c>
+      <c r="H95" t="n">
         <v>13.01333333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>401170.727</v>
       </c>
       <c r="G96" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H96" t="n">
         <v>13.015</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>12735.685</v>
       </c>
       <c r="G97" t="n">
+        <v>13.02666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>13.01666666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>13620.6175</v>
       </c>
       <c r="G98" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H98" t="n">
         <v>13.02</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>162596.4032</v>
       </c>
       <c r="G99" t="n">
+        <v>13.04666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>13.02166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>343911.523</v>
       </c>
       <c r="G100" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="H100" t="n">
         <v>13.02166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>481969.3433</v>
       </c>
       <c r="G101" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="H101" t="n">
         <v>13.02166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>700</v>
       </c>
       <c r="G102" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="H102" t="n">
         <v>13.02666666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>26360.1526</v>
       </c>
       <c r="G103" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H103" t="n">
         <v>13.03166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>57550.7905</v>
       </c>
       <c r="G104" t="n">
+        <v>13.11333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>13.03666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>12530</v>
       </c>
       <c r="G105" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="H105" t="n">
         <v>13.03833333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>237973.1064</v>
       </c>
       <c r="G106" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="H106" t="n">
         <v>13.04000000000001</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>665411.5568158508</v>
       </c>
       <c r="G107" t="n">
+        <v>13.11333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>13.04000000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>4832</v>
       </c>
       <c r="G108" t="n">
+        <v>13.10666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>13.04000000000001</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>4884</v>
       </c>
       <c r="G109" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H109" t="n">
         <v>13.03833333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>29826.4728</v>
       </c>
       <c r="G110" t="n">
+        <v>13.07333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>13.03500000000001</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>30988.2444</v>
       </c>
       <c r="G111" t="n">
+        <v>13.05333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>13.03166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>137734.6907841492</v>
       </c>
       <c r="G112" t="n">
+        <v>13.04666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>13.03166666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>24127.66301585082</v>
       </c>
       <c r="G113" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H113" t="n">
         <v>13.03166666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>301919.2919</v>
       </c>
       <c r="G114" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H114" t="n">
         <v>13.03000000000001</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>19510</v>
       </c>
       <c r="G115" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>13.02666666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>10628.0386</v>
       </c>
       <c r="G116" t="n">
+        <v>13.02666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>13.02333333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>123457.0446</v>
       </c>
       <c r="G117" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>13.02</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>3148.1033</v>
       </c>
       <c r="G118" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>13.015</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>113306.9006</v>
       </c>
       <c r="G119" t="n">
+        <v>12.96666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>13.01</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>99876.5165</v>
       </c>
       <c r="G120" t="n">
+        <v>12.94666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>13.005</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>56250</v>
       </c>
       <c r="G121" t="n">
+        <v>12.92666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>12.99833333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>234142.687</v>
       </c>
       <c r="G122" t="n">
+        <v>12.92000000000001</v>
+      </c>
+      <c r="H122" t="n">
         <v>12.99666666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>197013.7596</v>
       </c>
       <c r="G123" t="n">
+        <v>12.91333333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>12.99333333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>3033.6289</v>
       </c>
       <c r="G124" t="n">
+        <v>12.90666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>12.99</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>57.4436</v>
       </c>
       <c r="G125" t="n">
+        <v>12.93333333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>12.995</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>5468.8797</v>
       </c>
       <c r="G126" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H126" t="n">
         <v>12.99333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>1356.4613</v>
       </c>
       <c r="G127" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H127" t="n">
         <v>12.99166666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>1952.059</v>
       </c>
       <c r="G128" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H128" t="n">
         <v>12.99166666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>9615.384599999999</v>
       </c>
       <c r="G129" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H129" t="n">
         <v>12.99</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>375392.6511</v>
       </c>
       <c r="G130" t="n">
+        <v>12.97333333333334</v>
+      </c>
+      <c r="H130" t="n">
         <v>12.995</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>345055.1221</v>
       </c>
       <c r="G131" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>12.99999999999999</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>23020.9973</v>
       </c>
       <c r="G132" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H132" t="n">
         <v>13.00666666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>126686.7338</v>
       </c>
       <c r="G133" t="n">
+        <v>13.05333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>13.00666666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>4734.9707</v>
       </c>
       <c r="G134" t="n">
+        <v>13.06666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>13.00999999999999</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>84850.21829999999</v>
       </c>
       <c r="G135" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="H135" t="n">
         <v>13.00999999999999</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>21.8</v>
       </c>
       <c r="G136" t="n">
+        <v>13.09333333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>13.01166666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>25563.9097</v>
       </c>
       <c r="G137" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="H137" t="n">
         <v>13.01999999999999</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>2680</v>
       </c>
       <c r="G138" t="n">
+        <v>13.13333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>13.025</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>93610.3656</v>
       </c>
       <c r="G139" t="n">
+        <v>13.14666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>13.03</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>32104.7392</v>
       </c>
       <c r="G140" t="n">
+        <v>13.12666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>13.03333333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>7290.1591</v>
       </c>
       <c r="G141" t="n">
+        <v>13.12666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>13.035</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>165841.704</v>
       </c>
       <c r="G142" t="n">
+        <v>13.12666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>13.035</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>1338.1772</v>
       </c>
       <c r="G143" t="n">
+        <v>13.12666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>13.03666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>224462.5742</v>
       </c>
       <c r="G144" t="n">
+        <v>13.12666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>13.03833333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>27880.7222</v>
       </c>
       <c r="G145" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H145" t="n">
         <v>13.04166666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>11410</v>
       </c>
       <c r="G146" t="n">
+        <v>13.07333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>13.04166666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>32644</v>
       </c>
       <c r="G147" t="n">
+        <v>13.04666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>13.04333333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>57839.5721</v>
       </c>
       <c r="G148" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H148" t="n">
         <v>13.045</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>694.7867</v>
       </c>
       <c r="G149" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>13.045</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>79126.2133</v>
       </c>
       <c r="G150" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>13.045</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>34605.0739</v>
       </c>
       <c r="G151" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>13.04333333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>336543.0327</v>
       </c>
       <c r="G152" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H152" t="n">
         <v>13.04333333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>4013.1577</v>
       </c>
       <c r="G153" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>13.04166666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>20704</v>
       </c>
       <c r="G154" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>13.04</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>58945.7649</v>
       </c>
       <c r="G155" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>13.035</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>2005.8611</v>
       </c>
       <c r="G156" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>13.03166666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>23176.604</v>
       </c>
       <c r="G157" t="n">
+        <v>13</v>
+      </c>
+      <c r="H157" t="n">
         <v>13.02833333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>375307.9436</v>
       </c>
       <c r="G158" t="n">
+        <v>13</v>
+      </c>
+      <c r="H158" t="n">
         <v>13.02666666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>47289</v>
       </c>
       <c r="G159" t="n">
+        <v>13</v>
+      </c>
+      <c r="H159" t="n">
         <v>13.02666666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>20000</v>
       </c>
       <c r="G160" t="n">
+        <v>13</v>
+      </c>
+      <c r="H160" t="n">
         <v>13.02666666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>170.1389</v>
       </c>
       <c r="G161" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>13.025</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>970.1884</v>
       </c>
       <c r="G162" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>13.02</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>24965</v>
       </c>
       <c r="G163" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>13.01666666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>2005.8611</v>
       </c>
       <c r="G164" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>13.015</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>1184.6836</v>
       </c>
       <c r="G165" t="n">
+        <v>13</v>
+      </c>
+      <c r="H165" t="n">
         <v>13.015</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>247795.0757</v>
       </c>
       <c r="G166" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>13.01666666666666</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>35237.127</v>
       </c>
       <c r="G167" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>13.01833333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>130253.1861</v>
       </c>
       <c r="G168" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>13.01833333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6296,15 +6802,18 @@
         <v>13.02</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>13.02</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>36014</v>
       </c>
       <c r="G170" t="n">
+        <v>13.02666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>13.02333333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>114018.3083</v>
       </c>
       <c r="G171" t="n">
+        <v>13.02666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>13.025</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>38840</v>
       </c>
       <c r="G172" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>13.025</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>4740.2888</v>
       </c>
       <c r="G173" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>13.025</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>62659.5364</v>
       </c>
       <c r="G174" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>13.025</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>130449.6804</v>
       </c>
       <c r="G175" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>13.02666666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>30880.0878</v>
       </c>
       <c r="G176" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H176" t="n">
         <v>13.02833333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>25514.8772</v>
       </c>
       <c r="G177" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H177" t="n">
         <v>13.02833333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>73969.4656</v>
       </c>
       <c r="G178" t="n">
+        <v>13.04666666666666</v>
+      </c>
+      <c r="H178" t="n">
         <v>13.03166666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>231331.134</v>
       </c>
       <c r="G179" t="n">
+        <v>13.04666666666666</v>
+      </c>
+      <c r="H179" t="n">
         <v>13.035</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>4310</v>
       </c>
       <c r="G180" t="n">
+        <v>13.04666666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>13.04</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7255,21 @@
         <v>252397</v>
       </c>
       <c r="G181" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H181" t="n">
         <v>13.045</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7293,21 @@
         <v>6106.1602</v>
       </c>
       <c r="G182" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H182" t="n">
         <v>13.04833333333334</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7331,21 @@
         <v>179.9167</v>
       </c>
       <c r="G183" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H183" t="n">
         <v>13.05</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7369,21 @@
         <v>15842</v>
       </c>
       <c r="G184" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>13.05166666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7407,21 @@
         <v>34</v>
       </c>
       <c r="G185" t="n">
+        <v>13.02666666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>13.04666666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7445,21 @@
         <v>1266</v>
       </c>
       <c r="G186" t="n">
+        <v>13.02666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>13.04666666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7483,21 @@
         <v>10</v>
       </c>
       <c r="G187" t="n">
+        <v>13.02666666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>13.04666666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7521,21 @@
         <v>337787.7692</v>
       </c>
       <c r="G188" t="n">
+        <v>13.02666666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>13.04666666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7559,21 @@
         <v>48649.7112</v>
       </c>
       <c r="G189" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H189" t="n">
         <v>13.04500000000001</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7597,21 @@
         <v>3345.2671</v>
       </c>
       <c r="G190" t="n">
+        <v>13.02666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>13.04</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7635,21 @@
         <v>25680.687</v>
       </c>
       <c r="G191" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>13.03500000000001</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7673,21 @@
         <v>8744.7161</v>
       </c>
       <c r="G192" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>13.02666666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7711,21 @@
         <v>91083.9929</v>
       </c>
       <c r="G193" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H193" t="n">
         <v>13.02333333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7749,21 @@
         <v>11</v>
       </c>
       <c r="G194" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>13.02166666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7787,21 @@
         <v>4195.8461</v>
       </c>
       <c r="G195" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>13.02166666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7825,21 @@
         <v>23438.5961</v>
       </c>
       <c r="G196" t="n">
+        <v>13</v>
+      </c>
+      <c r="H196" t="n">
         <v>13.02166666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7863,21 @@
         <v>26435.1915</v>
       </c>
       <c r="G197" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>13.01666666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +7901,21 @@
         <v>24</v>
       </c>
       <c r="G198" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>13.01500000000001</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +7939,21 @@
         <v>4537</v>
       </c>
       <c r="G199" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>13.01333333333334</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +7977,21 @@
         <v>11</v>
       </c>
       <c r="G200" t="n">
+        <v>13</v>
+      </c>
+      <c r="H200" t="n">
         <v>13.01500000000001</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8015,21 @@
         <v>229007.6335877863</v>
       </c>
       <c r="G201" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>13.01666666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8053,21 @@
         <v>10000</v>
       </c>
       <c r="G202" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>13.01666666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8091,21 @@
         <v>21</v>
       </c>
       <c r="G203" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>13.01833333333334</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8129,21 @@
         <v>73478.36810000001</v>
       </c>
       <c r="G204" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H204" t="n">
         <v>13.01833333333334</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8167,21 @@
         <v>50000</v>
       </c>
       <c r="G205" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>13.01833333333334</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8205,21 @@
         <v>12</v>
       </c>
       <c r="G206" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>13.02000000000001</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8243,21 @@
         <v>50969.9017</v>
       </c>
       <c r="G207" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H207" t="n">
         <v>13.02000000000001</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8281,21 @@
         <v>12739.4575</v>
       </c>
       <c r="G208" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="H208" t="n">
         <v>13.01833333333334</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8319,21 @@
         <v>26507.4589</v>
       </c>
       <c r="G209" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>13.01666666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8357,21 @@
         <v>11</v>
       </c>
       <c r="G210" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>13.01666666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8395,21 @@
         <v>350000</v>
       </c>
       <c r="G211" t="n">
+        <v>13.00666666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>13.01500000000001</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8433,21 @@
         <v>42061.5116</v>
       </c>
       <c r="G212" t="n">
+        <v>13</v>
+      </c>
+      <c r="H212" t="n">
         <v>13.01166666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8471,21 @@
         <v>10</v>
       </c>
       <c r="G213" t="n">
+        <v>13</v>
+      </c>
+      <c r="H213" t="n">
         <v>13.01166666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8509,21 @@
         <v>22824</v>
       </c>
       <c r="G214" t="n">
+        <v>13</v>
+      </c>
+      <c r="H214" t="n">
         <v>13.01166666666667</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8547,21 @@
         <v>5143</v>
       </c>
       <c r="G215" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>13.01166666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8585,21 @@
         <v>55802</v>
       </c>
       <c r="G216" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>13.01166666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8623,21 @@
         <v>2000</v>
       </c>
       <c r="G217" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>13.01333333333334</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +8661,21 @@
         <v>4433.615384615385</v>
       </c>
       <c r="G218" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H218" t="n">
         <v>13.01333333333334</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +8699,21 @@
         <v>96328.5384</v>
       </c>
       <c r="G219" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H219" t="n">
         <v>13.01333333333334</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +8737,21 @@
         <v>14016.2307</v>
       </c>
       <c r="G220" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H220" t="n">
         <v>13.01333333333334</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +8775,21 @@
         <v>46153.8461</v>
       </c>
       <c r="G221" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H221" t="n">
         <v>13.01500000000001</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +8813,21 @@
         <v>39995.5135</v>
       </c>
       <c r="G222" t="n">
+        <v>12.96666666666667</v>
+      </c>
+      <c r="H222" t="n">
         <v>13.01500000000001</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +8851,21 @@
         <v>10</v>
       </c>
       <c r="G223" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H223" t="n">
         <v>13.01500000000001</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +8889,21 @@
         <v>157699.1584</v>
       </c>
       <c r="G224" t="n">
+        <v>12.96666666666667</v>
+      </c>
+      <c r="H224" t="n">
         <v>13.01</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +8927,21 @@
         <v>11</v>
       </c>
       <c r="G225" t="n">
+        <v>12.96666666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>13.00833333333334</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +8965,21 @@
         <v>58215.373</v>
       </c>
       <c r="G226" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>13.005</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9003,21 @@
         <v>82350.0001</v>
       </c>
       <c r="G227" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H227" t="n">
         <v>13.00166666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9041,21 @@
         <v>352779.6098</v>
       </c>
       <c r="G228" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H228" t="n">
         <v>12.99833333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9079,21 @@
         <v>10000</v>
       </c>
       <c r="G229" t="n">
+        <v>12.95333333333334</v>
+      </c>
+      <c r="H229" t="n">
         <v>12.995</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9117,21 @@
         <v>5000</v>
       </c>
       <c r="G230" t="n">
+        <v>12.94666666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>12.99166666666667</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9155,21 @@
         <v>20288.5271</v>
       </c>
       <c r="G231" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H231" t="n">
         <v>12.99</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9193,21 @@
         <v>91498.67720000001</v>
       </c>
       <c r="G232" t="n">
+        <v>12.92666666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>12.98666666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9231,21 @@
         <v>297999.2263</v>
       </c>
       <c r="G233" t="n">
+        <v>12.91333333333334</v>
+      </c>
+      <c r="H233" t="n">
         <v>12.98333333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9269,21 @@
         <v>11812.2402</v>
       </c>
       <c r="G234" t="n">
+        <v>12.90000000000001</v>
+      </c>
+      <c r="H234" t="n">
         <v>12.98</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9307,21 @@
         <v>1788.4576</v>
       </c>
       <c r="G235" t="n">
+        <v>12.89333333333334</v>
+      </c>
+      <c r="H235" t="n">
         <v>12.97833333333333</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9345,21 @@
         <v>1992.5131</v>
       </c>
       <c r="G236" t="n">
+        <v>12.88666666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>12.97666666666666</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,18 +9383,21 @@
         <v>3274.4088</v>
       </c>
       <c r="G237" t="n">
+        <v>12.88666666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>12.97666666666666</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,18 +9421,21 @@
         <v>18011.7715</v>
       </c>
       <c r="G238" t="n">
+        <v>12.88000000000001</v>
+      </c>
+      <c r="H238" t="n">
         <v>12.97333333333333</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8743,18 +9459,21 @@
         <v>518.1787</v>
       </c>
       <c r="G239" t="n">
+        <v>12.88666666666667</v>
+      </c>
+      <c r="H239" t="n">
         <v>12.97</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8778,18 +9497,21 @@
         <v>465.9591</v>
       </c>
       <c r="G240" t="n">
+        <v>12.88000000000001</v>
+      </c>
+      <c r="H240" t="n">
         <v>12.96666666666666</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8813,18 +9535,21 @@
         <v>419.002</v>
       </c>
       <c r="G241" t="n">
+        <v>12.87333333333334</v>
+      </c>
+      <c r="H241" t="n">
         <v>12.96333333333333</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8848,18 +9573,21 @@
         <v>396.0793</v>
       </c>
       <c r="G242" t="n">
+        <v>12.87333333333334</v>
+      </c>
+      <c r="H242" t="n">
         <v>12.95999999999999</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8883,18 +9611,21 @@
         <v>184.0964</v>
       </c>
       <c r="G243" t="n">
+        <v>12.88000000000001</v>
+      </c>
+      <c r="H243" t="n">
         <v>12.95833333333333</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8918,18 +9649,21 @@
         <v>459.3747</v>
       </c>
       <c r="G244" t="n">
+        <v>12.88000000000001</v>
+      </c>
+      <c r="H244" t="n">
         <v>12.95666666666666</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8953,18 +9687,21 @@
         <v>273.9613</v>
       </c>
       <c r="G245" t="n">
+        <v>12.88000000000001</v>
+      </c>
+      <c r="H245" t="n">
         <v>12.95499999999999</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8988,18 +9725,21 @@
         <v>50246.5309</v>
       </c>
       <c r="G246" t="n">
+        <v>12.88000000000001</v>
+      </c>
+      <c r="H246" t="n">
         <v>12.95333333333332</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,18 +9763,21 @@
         <v>221.5266</v>
       </c>
       <c r="G247" t="n">
+        <v>12.88666666666667</v>
+      </c>
+      <c r="H247" t="n">
         <v>12.95166666666666</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9058,18 +9801,21 @@
         <v>340.3392</v>
       </c>
       <c r="G248" t="n">
+        <v>12.89333333333334</v>
+      </c>
+      <c r="H248" t="n">
         <v>12.94999999999999</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,18 +9839,21 @@
         <v>144.9012</v>
       </c>
       <c r="G249" t="n">
+        <v>12.90000000000001</v>
+      </c>
+      <c r="H249" t="n">
         <v>12.94999999999999</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9128,18 +9877,21 @@
         <v>3330.2988</v>
       </c>
       <c r="G250" t="n">
+        <v>12.90000000000001</v>
+      </c>
+      <c r="H250" t="n">
         <v>12.94666666666666</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9163,18 +9915,21 @@
         <v>117.1679</v>
       </c>
       <c r="G251" t="n">
+        <v>12.90000000000001</v>
+      </c>
+      <c r="H251" t="n">
         <v>12.94333333333332</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9198,18 +9953,21 @@
         <v>11</v>
       </c>
       <c r="G252" t="n">
+        <v>12.90666666666667</v>
+      </c>
+      <c r="H252" t="n">
         <v>12.94499999999999</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9233,18 +9991,21 @@
         <v>255441.9515</v>
       </c>
       <c r="G253" t="n">
+        <v>12.89333333333334</v>
+      </c>
+      <c r="H253" t="n">
         <v>12.94166666666666</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9268,18 +10029,21 @@
         <v>246060.0085</v>
       </c>
       <c r="G254" t="n">
+        <v>12.87333333333334</v>
+      </c>
+      <c r="H254" t="n">
         <v>12.93499999999999</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9303,18 +10067,21 @@
         <v>287.8058</v>
       </c>
       <c r="G255" t="n">
+        <v>12.85333333333334</v>
+      </c>
+      <c r="H255" t="n">
         <v>12.92833333333332</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9338,18 +10105,21 @@
         <v>6878.7192</v>
       </c>
       <c r="G256" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="H256" t="n">
         <v>12.92333333333332</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,18 +10143,21 @@
         <v>77211.6406</v>
       </c>
       <c r="G257" t="n">
+        <v>12.83333333333334</v>
+      </c>
+      <c r="H257" t="n">
         <v>12.91999999999999</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9408,18 +10181,21 @@
         <v>3690.9305</v>
       </c>
       <c r="G258" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="H258" t="n">
         <v>12.91499999999999</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9443,18 +10219,21 @@
         <v>20407.874</v>
       </c>
       <c r="G259" t="n">
+        <v>12.80666666666667</v>
+      </c>
+      <c r="H259" t="n">
         <v>12.90999999999999</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9478,18 +10257,21 @@
         <v>35717.6099</v>
       </c>
       <c r="G260" t="n">
+        <v>12.78666666666667</v>
+      </c>
+      <c r="H260" t="n">
         <v>12.90166666666666</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9513,18 +10295,21 @@
         <v>470246.0085</v>
       </c>
       <c r="G261" t="n">
+        <v>12.76666666666666</v>
+      </c>
+      <c r="H261" t="n">
         <v>12.89333333333333</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9548,18 +10333,21 @@
         <v>270666.88</v>
       </c>
       <c r="G262" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="H262" t="n">
         <v>12.88499999999999</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9583,18 +10371,21 @@
         <v>37030.385</v>
       </c>
       <c r="G263" t="n">
+        <v>12.71333333333333</v>
+      </c>
+      <c r="H263" t="n">
         <v>12.87499999999999</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9618,18 +10409,21 @@
         <v>35.9214</v>
       </c>
       <c r="G264" t="n">
+        <v>12.68666666666666</v>
+      </c>
+      <c r="H264" t="n">
         <v>12.86666666666666</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,18 +10447,21 @@
         <v>179.55</v>
       </c>
       <c r="G265" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="H265" t="n">
         <v>12.85833333333333</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9688,18 +10485,21 @@
         <v>77026.1881</v>
       </c>
       <c r="G266" t="n">
+        <v>12.62666666666666</v>
+      </c>
+      <c r="H266" t="n">
         <v>12.84666666666666</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9723,18 +10523,21 @@
         <v>40790.2658</v>
       </c>
       <c r="G267" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H267" t="n">
         <v>12.83999999999999</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9758,18 +10561,21 @@
         <v>6740.4941</v>
       </c>
       <c r="G268" t="n">
+        <v>12.59333333333333</v>
+      </c>
+      <c r="H268" t="n">
         <v>12.83499999999999</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9793,18 +10599,21 @@
         <v>20419.6915</v>
       </c>
       <c r="G269" t="n">
+        <v>12.59333333333333</v>
+      </c>
+      <c r="H269" t="n">
         <v>12.82999999999999</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9828,18 +10637,21 @@
         <v>1082.9132</v>
       </c>
       <c r="G270" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H270" t="n">
         <v>12.82499999999999</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9863,18 +10675,21 @@
         <v>116889.4217</v>
       </c>
       <c r="G271" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H271" t="n">
         <v>12.82166666666666</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9898,18 +10713,21 @@
         <v>13000</v>
       </c>
       <c r="G272" t="n">
+        <v>12.59333333333333</v>
+      </c>
+      <c r="H272" t="n">
         <v>12.81833333333333</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9933,18 +10751,21 @@
         <v>35769.1844</v>
       </c>
       <c r="G273" t="n">
+        <v>12.58666666666666</v>
+      </c>
+      <c r="H273" t="n">
         <v>12.81166666666666</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9968,18 +10789,21 @@
         <v>55814.5029</v>
       </c>
       <c r="G274" t="n">
+        <v>12.57999999999999</v>
+      </c>
+      <c r="H274" t="n">
         <v>12.805</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10003,18 +10827,21 @@
         <v>9580.161700000001</v>
       </c>
       <c r="G275" t="n">
+        <v>12.57999999999999</v>
+      </c>
+      <c r="H275" t="n">
         <v>12.79833333333333</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10038,18 +10865,21 @@
         <v>183206.2</v>
       </c>
       <c r="G276" t="n">
+        <v>12.57333333333333</v>
+      </c>
+      <c r="H276" t="n">
         <v>12.79</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10073,18 +10903,21 @@
         <v>36385.0107</v>
       </c>
       <c r="G277" t="n">
+        <v>12.57333333333333</v>
+      </c>
+      <c r="H277" t="n">
         <v>12.78166666666666</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10108,18 +10941,21 @@
         <v>437.7096</v>
       </c>
       <c r="G278" t="n">
+        <v>12.57333333333333</v>
+      </c>
+      <c r="H278" t="n">
         <v>12.77333333333333</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10143,18 +10979,21 @@
         <v>292872.3477</v>
       </c>
       <c r="G279" t="n">
+        <v>12.56666666666666</v>
+      </c>
+      <c r="H279" t="n">
         <v>12.76333333333333</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10178,18 +11017,21 @@
         <v>61078.9635</v>
       </c>
       <c r="G280" t="n">
+        <v>12.55333333333333</v>
+      </c>
+      <c r="H280" t="n">
         <v>12.75166666666666</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10213,18 +11055,21 @@
         <v>15737.2808</v>
       </c>
       <c r="G281" t="n">
+        <v>12.55333333333333</v>
+      </c>
+      <c r="H281" t="n">
         <v>12.74166666666666</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10248,18 +11093,21 @@
         <v>950</v>
       </c>
       <c r="G282" t="n">
+        <v>12.54666666666666</v>
+      </c>
+      <c r="H282" t="n">
         <v>12.735</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10283,18 +11131,21 @@
         <v>96328.5384</v>
       </c>
       <c r="G283" t="n">
+        <v>12.53333333333333</v>
+      </c>
+      <c r="H283" t="n">
         <v>12.725</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10318,18 +11169,21 @@
         <v>23</v>
       </c>
       <c r="G284" t="n">
+        <v>12.52666666666667</v>
+      </c>
+      <c r="H284" t="n">
         <v>12.72</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10353,18 +11207,21 @@
         <v>692.8</v>
       </c>
       <c r="G285" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H285" t="n">
         <v>12.71166666666666</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10388,18 +11245,21 @@
         <v>343</v>
       </c>
       <c r="G286" t="n">
+        <v>12.49333333333333</v>
+      </c>
+      <c r="H286" t="n">
         <v>12.70166666666666</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10423,18 +11283,21 @@
         <v>133091.4472</v>
       </c>
       <c r="G287" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="H287" t="n">
         <v>12.695</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10458,18 +11321,21 @@
         <v>160000</v>
       </c>
       <c r="G288" t="n">
+        <v>12.47333333333333</v>
+      </c>
+      <c r="H288" t="n">
         <v>12.69</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10493,18 +11359,21 @@
         <v>830.7528</v>
       </c>
       <c r="G289" t="n">
+        <v>12.46666666666667</v>
+      </c>
+      <c r="H289" t="n">
         <v>12.68333333333333</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10528,18 +11397,21 @@
         <v>33467.01</v>
       </c>
       <c r="G290" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="H290" t="n">
         <v>12.67666666666667</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10563,18 +11435,21 @@
         <v>21</v>
       </c>
       <c r="G291" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="H291" t="n">
         <v>12.67</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10598,18 +11473,21 @@
         <v>10</v>
       </c>
       <c r="G292" t="n">
+        <v>12.45333333333334</v>
+      </c>
+      <c r="H292" t="n">
         <v>12.66333333333333</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10633,18 +11511,21 @@
         <v>23319.0482</v>
       </c>
       <c r="G293" t="n">
+        <v>12.45333333333334</v>
+      </c>
+      <c r="H293" t="n">
         <v>12.65833333333333</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10668,18 +11549,21 @@
         <v>4190</v>
       </c>
       <c r="G294" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="H294" t="n">
         <v>12.65333333333333</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10703,18 +11587,21 @@
         <v>167733.9512</v>
       </c>
       <c r="G295" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="H295" t="n">
         <v>12.64333333333333</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10738,18 +11625,21 @@
         <v>556131.5264</v>
       </c>
       <c r="G296" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="H296" t="n">
         <v>12.635</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10773,18 +11663,21 @@
         <v>10</v>
       </c>
       <c r="G297" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H297" t="n">
         <v>12.62333333333333</v>
       </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10808,18 +11701,21 @@
         <v>12</v>
       </c>
       <c r="G298" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H298" t="n">
         <v>12.615</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10843,18 +11739,21 @@
         <v>444826.4142</v>
       </c>
       <c r="G299" t="n">
+        <v>12.40666666666667</v>
+      </c>
+      <c r="H299" t="n">
         <v>12.6</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10878,18 +11777,21 @@
         <v>39463.8765</v>
       </c>
       <c r="G300" t="n">
+        <v>12.37333333333333</v>
+      </c>
+      <c r="H300" t="n">
         <v>12.585</v>
       </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10913,18 +11815,27 @@
         <v>503782.219</v>
       </c>
       <c r="G301" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="H301" t="n">
         <v>12.56833333333334</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
       <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>12</v>
+      </c>
       <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10948,18 +11859,27 @@
         <v>340855.3115</v>
       </c>
       <c r="G302" t="n">
+        <v>12.29333333333333</v>
+      </c>
+      <c r="H302" t="n">
         <v>12.55</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
       <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10983,18 +11903,27 @@
         <v>57969.4904</v>
       </c>
       <c r="G303" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="H303" t="n">
         <v>12.535</v>
       </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
       <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>11.8</v>
+      </c>
       <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11018,18 +11947,27 @@
         <v>748.2687</v>
       </c>
       <c r="G304" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H304" t="n">
         <v>12.52</v>
       </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
       <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>12</v>
+      </c>
       <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11053,18 +11991,27 @@
         <v>123.9669</v>
       </c>
       <c r="G305" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H305" t="n">
         <v>12.50666666666667</v>
       </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
       <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>12</v>
+      </c>
       <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11088,18 +12035,27 @@
         <v>236803.4521</v>
       </c>
       <c r="G306" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="H306" t="n">
         <v>12.495</v>
       </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
       <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11123,18 +12079,27 @@
         <v>71502.9999</v>
       </c>
       <c r="G307" t="n">
+        <v>12.16666666666667</v>
+      </c>
+      <c r="H307" t="n">
         <v>12.48333333333334</v>
       </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
       <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N307" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11158,18 +12123,27 @@
         <v>13</v>
       </c>
       <c r="G308" t="n">
+        <v>12.15333333333333</v>
+      </c>
+      <c r="H308" t="n">
         <v>12.47333333333334</v>
       </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
       <c r="I308" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N308" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11193,18 +12167,27 @@
         <v>10</v>
       </c>
       <c r="G309" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H309" t="n">
         <v>12.46166666666667</v>
       </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
       <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>12.3</v>
+      </c>
       <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N309" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11228,18 +12211,25 @@
         <v>11</v>
       </c>
       <c r="G310" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H310" t="n">
         <v>12.45166666666667</v>
       </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11263,24 +12253,25 @@
         <v>40030</v>
       </c>
       <c r="G311" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H311" t="n">
         <v>12.44000000000001</v>
       </c>
-      <c r="H311" t="n">
-        <v>1</v>
-      </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
       <c r="J311" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
+      <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
+      <c r="N311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11304,24 +12295,25 @@
         <v>12</v>
       </c>
       <c r="G312" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H312" t="n">
         <v>12.43000000000001</v>
       </c>
-      <c r="H312" t="n">
-        <v>1</v>
-      </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
       <c r="J312" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
+      <c r="N312" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11345,24 +12337,25 @@
         <v>71.51000000000001</v>
       </c>
       <c r="G313" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H313" t="n">
         <v>12.42333333333334</v>
       </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
       <c r="J313" t="n">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
+      <c r="N313" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11386,22 +12379,25 @@
         <v>161300.813</v>
       </c>
       <c r="G314" t="n">
+        <v>12.14666666666667</v>
+      </c>
+      <c r="H314" t="n">
         <v>12.41833333333334</v>
       </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
+      <c r="N314" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11425,24 +12421,25 @@
         <v>180000</v>
       </c>
       <c r="G315" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="H315" t="n">
         <v>12.41166666666667</v>
       </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
+      <c r="N315" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11466,22 +12463,25 @@
         <v>100000</v>
       </c>
       <c r="G316" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="H316" t="n">
         <v>12.40333333333334</v>
       </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
+      <c r="N316" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11505,24 +12505,25 @@
         <v>23860</v>
       </c>
       <c r="G317" t="n">
+        <v>12.20666666666667</v>
+      </c>
+      <c r="H317" t="n">
         <v>12.39333333333334</v>
       </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
       <c r="J317" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
+      <c r="N317" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11546,24 +12547,25 @@
         <v>157572.408</v>
       </c>
       <c r="G318" t="n">
+        <v>12.21333333333333</v>
+      </c>
+      <c r="H318" t="n">
         <v>12.38333333333334</v>
       </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
       <c r="J318" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
+      <c r="N318" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11587,24 +12589,25 @@
         <v>12</v>
       </c>
       <c r="G319" t="n">
+        <v>12.23333333333333</v>
+      </c>
+      <c r="H319" t="n">
         <v>12.37666666666667</v>
       </c>
-      <c r="H319" t="n">
-        <v>1</v>
-      </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
       <c r="J319" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
+      <c r="N319" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11628,24 +12631,445 @@
         <v>10</v>
       </c>
       <c r="G320" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="H320" t="n">
         <v>12.37</v>
       </c>
-      <c r="H320" t="n">
-        <v>1</v>
-      </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
       <c r="J320" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
+      <c r="N320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C321" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D321" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E321" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F321" t="n">
+        <v>17083</v>
+      </c>
+      <c r="G321" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="H321" t="n">
+        <v>12.36333333333334</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C322" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E322" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F322" t="n">
+        <v>15220.8524</v>
+      </c>
+      <c r="G322" t="n">
+        <v>12.23333333333333</v>
+      </c>
+      <c r="H322" t="n">
+        <v>12.35666666666667</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C323" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D323" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E323" t="n">
+        <v>12</v>
+      </c>
+      <c r="F323" t="n">
+        <v>432876.0388</v>
+      </c>
+      <c r="G323" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="H323" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C324" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D324" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E324" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F324" t="n">
+        <v>164961.9197967213</v>
+      </c>
+      <c r="G324" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="H324" t="n">
+        <v>12.34500000000001</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C325" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E325" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F325" t="n">
+        <v>30</v>
+      </c>
+      <c r="G325" t="n">
+        <v>12.20666666666666</v>
+      </c>
+      <c r="H325" t="n">
+        <v>12.33833333333334</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C326" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D326" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E326" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F326" t="n">
+        <v>30</v>
+      </c>
+      <c r="G326" t="n">
+        <v>12.20666666666666</v>
+      </c>
+      <c r="H326" t="n">
+        <v>12.33500000000001</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C327" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D327" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E327" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F327" t="n">
+        <v>165523.5767</v>
+      </c>
+      <c r="G327" t="n">
+        <v>12.18666666666666</v>
+      </c>
+      <c r="H327" t="n">
+        <v>12.32666666666668</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C328" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E328" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F328" t="n">
+        <v>81065.4296</v>
+      </c>
+      <c r="G328" t="n">
+        <v>12.17333333333333</v>
+      </c>
+      <c r="H328" t="n">
+        <v>12.31833333333334</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C329" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E329" t="n">
+        <v>12</v>
+      </c>
+      <c r="F329" t="n">
+        <v>357825.1746</v>
+      </c>
+      <c r="G329" t="n">
+        <v>12.15999999999999</v>
+      </c>
+      <c r="H329" t="n">
+        <v>12.31000000000001</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C330" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D330" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E330" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F330" t="n">
+        <v>10</v>
+      </c>
+      <c r="G330" t="n">
+        <v>12.15999999999999</v>
+      </c>
+      <c r="H330" t="n">
+        <v>12.30166666666667</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N330" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-26 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>94308.45870000005</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>312032.246</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>312032.246</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>310037.246</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>913949.0780000001</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>681656.7160000001</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>618954.3820000001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1021703.1606</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1005590.3606</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1707033.7567</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1638149.1992</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2245859.0811</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2245859.0811</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>2108339.7015</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>2108229.407399999</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>2108229.407399999</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>2108229.407399999</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1876466.651799999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1876466.651799999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1876921.420999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1876921.420999999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1883849.131599999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1883849.131599999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1883849.131599999</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1883860.131599999</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1896268.089599999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1851487.094399999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1503212.764399999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1503212.764399999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1503225.764399999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1503225.764399999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1482815.764399999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1482815.764399999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1482815.764399999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1486538.201399999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1486538.201399999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1486538.201399999</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1486538.201399999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1486549.201399999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1486549.201399999</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1486549.201399999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1483759.201399999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1483759.201399999</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1483771.201399999</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1483771.201399999</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1483771.201399999</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>1483771.201399999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1576047.526269696</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1576047.526269696</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1557370.634869696</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1557381.634869696</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1504074.459769696</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1512474.459769696</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1512474.459769696</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1290984.976769696</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1290995.976769696</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1290995.976769696</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1246632.846669696</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1246643.846669696</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1246643.846669696</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1246643.846669696</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1075032.937369696</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1438174.531569696</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1380009.430369696</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1719192.987969696</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1530186.704569696</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1144924.256269696</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1144924.256269696</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1144924.256269696</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1144924.256269696</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1349875.040969696</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1349886.040969696</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1330271.556669696</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1330271.556669696</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1248049.995269696</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>1255406.14911585</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>1245646.14911585</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>1245646.14911585</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>1279605.014869696</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1279605.014869696</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>2624741.223299999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>2223570.496299999</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>2210834.811299999</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>2210834.811299999</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>2048238.408099999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>2048938.408099999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>2048938.408099999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>2048938.408099999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>2036408.408099999</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>2036408.408099999</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1370996.851284148</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1370996.851284148</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1370996.851284148</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1341170.378484148</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1459395.069268297</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>1359518.552768297</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>1359518.552768297</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>1593661.239768297</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>1588249.803668297</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>1588249.803668297</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>1588249.803668297</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>1752105.502668297</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>2079427.705868297</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>2075414.548168297</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>2075414.548168297</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>2075414.548168297</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>2075414.548168297</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>2052237.944168297</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>2427545.887768297</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>2427545.887768297</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>2427545.887768297</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>2427375.748868297</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>2427375.748868297</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>2452340.748868297</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>2454346.609968297</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>2454346.609968297</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>2702141.685668297</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>2666904.558668297</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>2536651.372568297</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>2536662.372568297</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>2536662.372568297</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>2397129.187068297</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>2422269.024768297</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>2425614.291868296</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>2425614.291868296</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>2416869.575768297</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>2416869.575768297</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>2416880.575768297</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>2416880.575768297</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>2416880.575768297</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>2416880.575768297</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>2416891.575768297</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>2416891.575768297</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>2406891.575768297</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>2406912.575768297</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>2333434.207668297</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>2333434.207668297</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>2333446.207668297</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>2282476.305968297</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>2269736.848468297</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>2269736.848468297</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>2269747.848468297</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1919747.848468297</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>1919747.848468297</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>1879762.334968297</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>1879772.334968297</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1722073.176568297</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>1722084.176568297</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>1722084.176568297</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>1639734.176468297</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>1286954.566668297</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>1296954.566668297</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>1296954.566668297</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>1296954.566668297</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>1205455.889468297</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>1205455.889468297</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>1205455.889468297</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>1207255.347068297</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>951813.3955682968</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>705753.3870682968</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>705753.3870682968</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>712632.1062682968</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>789843.7468682969</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>479768.3264682968</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11968,699 +11968,635 @@
         <v>-51872.14043170326</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C352" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D352" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E352" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F352" t="n">
+        <v>4190</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-51872.14043170326</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C353" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D353" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E353" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F353" t="n">
+        <v>167733.9512</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-219606.0916317033</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C354" t="n">
         <v>12.4</v>
       </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
+      <c r="D354" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E354" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F354" t="n">
+        <v>556131.5264</v>
+      </c>
+      <c r="G354" t="n">
+        <v>336525.4347682967</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C355" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D355" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E355" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F355" t="n">
+        <v>10</v>
+      </c>
+      <c r="G355" t="n">
+        <v>336515.4347682967</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C356" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D356" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E356" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F356" t="n">
+        <v>12</v>
+      </c>
+      <c r="G356" t="n">
+        <v>336527.4347682967</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C357" t="n">
+        <v>12</v>
+      </c>
+      <c r="D357" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E357" t="n">
+        <v>12</v>
+      </c>
+      <c r="F357" t="n">
+        <v>444826.4142</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-108298.9794317033</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>12</v>
+      </c>
+      <c r="C358" t="n">
+        <v>12</v>
+      </c>
+      <c r="D358" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E358" t="n">
+        <v>12</v>
+      </c>
+      <c r="F358" t="n">
+        <v>39463.8765</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-108298.9794317033</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>12</v>
+      </c>
+      <c r="C359" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D359" t="n">
+        <v>12</v>
+      </c>
+      <c r="E359" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F359" t="n">
+        <v>503782.219</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-612081.1984317033</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C360" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D360" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E360" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F360" t="n">
+        <v>340855.3115</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-952936.5099317033</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C361" t="n">
+        <v>12</v>
+      </c>
+      <c r="D361" t="n">
+        <v>12</v>
+      </c>
+      <c r="E361" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F361" t="n">
+        <v>57969.4904</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-894967.0195317033</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C362" t="n">
+        <v>12</v>
+      </c>
+      <c r="D362" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E362" t="n">
+        <v>12</v>
+      </c>
+      <c r="F362" t="n">
+        <v>748.2687</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-894967.0195317033</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C363" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D363" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E363" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F363" t="n">
+        <v>123.9669</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-894843.0526317033</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C364" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D364" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E364" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F364" t="n">
+        <v>236803.4521</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-658039.6005317033</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C365" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D365" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E365" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F365" t="n">
+        <v>71502.9999</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-658039.6005317033</v>
+      </c>
+      <c r="H365" t="n">
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J365" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C366" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D366" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E366" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F366" t="n">
+        <v>13</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-658026.6005317033</v>
+      </c>
+      <c r="H366" t="n">
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J366" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C367" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D367" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E367" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F367" t="n">
+        <v>10</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-658036.6005317033</v>
+      </c>
+      <c r="H367" t="n">
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J367" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C368" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D368" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E368" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F368" t="n">
+        <v>11</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-658025.6005317033</v>
+      </c>
+      <c r="H368" t="n">
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J368" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C369" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D369" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E369" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F369" t="n">
+        <v>40030</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-698055.6005317033</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K369" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C352" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D352" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E352" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F352" t="n">
-        <v>4190</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-51872.14043170326</v>
-      </c>
-      <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C353" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D353" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E353" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F353" t="n">
-        <v>167733.9512</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-219606.0916317033</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C354" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D354" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E354" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F354" t="n">
-        <v>556131.5264</v>
-      </c>
-      <c r="G354" t="n">
-        <v>336525.4347682967</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C355" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D355" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E355" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F355" t="n">
-        <v>10</v>
-      </c>
-      <c r="G355" t="n">
-        <v>336515.4347682967</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C356" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D356" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E356" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F356" t="n">
-        <v>12</v>
-      </c>
-      <c r="G356" t="n">
-        <v>336527.4347682967</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C357" t="n">
-        <v>12</v>
-      </c>
-      <c r="D357" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E357" t="n">
-        <v>12</v>
-      </c>
-      <c r="F357" t="n">
-        <v>444826.4142</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-108298.9794317033</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>12</v>
-      </c>
-      <c r="C358" t="n">
-        <v>12</v>
-      </c>
-      <c r="D358" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E358" t="n">
-        <v>12</v>
-      </c>
-      <c r="F358" t="n">
-        <v>39463.8765</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-108298.9794317033</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>12</v>
-      </c>
-      <c r="C359" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D359" t="n">
-        <v>12</v>
-      </c>
-      <c r="E359" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F359" t="n">
-        <v>503782.219</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-612081.1984317033</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C360" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D360" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E360" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F360" t="n">
-        <v>340855.3115</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-952936.5099317033</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C361" t="n">
-        <v>12</v>
-      </c>
-      <c r="D361" t="n">
-        <v>12</v>
-      </c>
-      <c r="E361" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F361" t="n">
-        <v>57969.4904</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-894967.0195317033</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C362" t="n">
-        <v>12</v>
-      </c>
-      <c r="D362" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E362" t="n">
-        <v>12</v>
-      </c>
-      <c r="F362" t="n">
-        <v>748.2687</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-894967.0195317033</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C363" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D363" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E363" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F363" t="n">
-        <v>123.9669</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-894843.0526317033</v>
-      </c>
-      <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>12</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C364" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D364" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E364" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F364" t="n">
-        <v>236803.4521</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-658039.6005317033</v>
-      </c>
-      <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C365" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D365" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E365" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F365" t="n">
-        <v>71502.9999</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-658039.6005317033</v>
-      </c>
-      <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C366" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D366" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E366" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F366" t="n">
-        <v>13</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-658026.6005317033</v>
-      </c>
-      <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C367" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D367" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E367" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F367" t="n">
-        <v>10</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-658036.6005317033</v>
-      </c>
-      <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C368" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D368" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E368" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F368" t="n">
-        <v>11</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-658025.6005317033</v>
-      </c>
-      <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C369" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D369" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E369" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F369" t="n">
-        <v>40030</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-698055.6005317033</v>
-      </c>
-      <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12689,12 +12625,12 @@
         <v>-698043.6005317033</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
         <v>12.2</v>
       </c>
-      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12728,12 +12664,12 @@
         <v>-698115.1105317033</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J371" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12767,12 +12703,12 @@
         <v>-698115.1105317033</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12806,12 +12742,12 @@
         <v>-878115.1105317033</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12845,12 +12781,12 @@
         <v>-878115.1105317033</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="n">
         <v>12.2</v>
       </c>
-      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12884,12 +12820,14 @@
         <v>-878115.1105317033</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>12.2</v>
       </c>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12923,12 +12861,14 @@
         <v>-1035687.518531703</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>12.2</v>
       </c>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12962,12 +12902,12 @@
         <v>-1035675.518531703</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13001,12 +12941,12 @@
         <v>-1035685.518531703</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J378" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13040,12 +12980,12 @@
         <v>-1035685.518531703</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
         <v>12.2</v>
       </c>
-      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13079,12 +13019,12 @@
         <v>-1050906.370931703</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
         <v>12.2</v>
       </c>
-      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13121,7 +13061,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13158,7 +13100,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13195,7 +13139,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13229,12 +13175,12 @@
         <v>-885944.4511349821</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J384" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13268,12 +13214,12 @@
         <v>-1051468.027834982</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
         <v>12.2</v>
       </c>
-      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13307,12 +13253,12 @@
         <v>-1051468.027834982</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J386" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13346,12 +13292,12 @@
         <v>-1051468.027834982</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J387" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13385,12 +13331,12 @@
         <v>-1051458.027834982</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J388" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13402,6 +13348,6 @@
       <c r="M388" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-26 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>94308.45870000005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>94264.56870000005</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>100404.5687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1025109.6012</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1061669.2562</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1876466.651799999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1876466.651799999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1876921.420999999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1876921.420999999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1883849.131599999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1883849.131599999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1883849.131599999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1883860.131599999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1896268.089599999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1851487.094399999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1503212.764399999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1503212.764399999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1503225.764399999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1503225.764399999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1482815.764399999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1482815.764399999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1482815.764399999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1486538.201399999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1486538.201399999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1486538.201399999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1486538.201399999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1486549.201399999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1486549.201399999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1486549.201399999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1483759.201399999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1483759.201399999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1483771.201399999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1483771.201399999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1483771.201399999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>1483771.201399999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1576047.526269696</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1576047.526269696</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1557370.634869696</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1557381.634869696</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1504074.459769696</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1512474.459769696</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1512474.459769696</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1290984.976769696</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1290995.976769696</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1290995.976769696</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1246632.846669696</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1246643.846669696</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1246643.846669696</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1246643.846669696</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1075032.937369696</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1438174.531569696</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1380009.430369696</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1719192.987969696</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1530186.704569696</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1144924.256269696</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1144924.256269696</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1144924.256269696</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1144924.256269696</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1349875.040969696</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1349886.040969696</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1330271.556669696</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1330271.556669696</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1248049.995269696</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>1255406.14911585</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>1245646.14911585</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>1245646.14911585</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>1279605.014869696</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1279605.014869696</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>2624741.223299999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>2223570.496299999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>2210834.811299999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>2210834.811299999</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>2048238.408099999</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>2048938.408099999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>2048938.408099999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>2048938.408099999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>2036408.408099999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1370996.851284148</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1370996.851284148</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1370996.851284148</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1341170.378484148</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1459395.069268297</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>1359518.552768297</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>1359518.552768297</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>1593661.239768297</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>1588249.803668297</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>1588249.803668297</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>1588249.803668297</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>1752105.502668297</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>2079427.705868297</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>2075414.548168297</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>2075414.548168297</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>2075414.548168297</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>2075414.548168297</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>2052237.944168297</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>2427545.887768297</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>2427545.887768297</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>2427545.887768297</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>2427375.748868297</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>2397129.187068297</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>2422269.024768297</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>2425614.291868296</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>2425614.291868296</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>2416869.575768297</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>2416869.575768297</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>2416880.575768297</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>2416880.575768297</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>2416880.575768297</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>2416880.575768297</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>2416891.575768297</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>2416891.575768297</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>2406891.575768297</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>2406912.575768297</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>2333434.207668297</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>2333434.207668297</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>2333446.207668297</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>2282476.305968297</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>2269736.848468297</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>2269736.848468297</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>2269747.848468297</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1919747.848468297</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>1919747.848468297</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1919757.848468297</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>1879762.334968297</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>1879772.334968297</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1722073.176568297</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>1722084.176568297</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>1722084.176568297</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>1639734.176468297</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>1286954.566668297</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>1296954.566668297</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>1296954.566668297</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>1296954.566668297</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>1205455.889468297</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>1205455.889468297</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>1205455.889468297</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>1207244.347068297</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>1207255.347068297</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>951813.3955682968</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>705753.3870682968</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>705753.3870682968</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>712632.1062682968</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>789843.7468682969</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>479768.3264682968</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12001,10 +12001,14 @@
         <v>-51872.14043170326</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J352" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
@@ -12037,8 +12041,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +12080,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +12119,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12136,8 +12158,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +12197,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12202,8 +12236,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +12275,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12311,19 @@
         <v>-952936.5099317033</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J360" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12352,19 @@
         <v>-894967.0195317033</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J361" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12393,19 @@
         <v>-894967.0195317033</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>12</v>
+      </c>
+      <c r="J362" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12434,19 @@
         <v>-894843.0526317033</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>12</v>
+      </c>
+      <c r="J363" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12475,19 @@
         <v>-658039.6005317033</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J364" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,15 +12516,17 @@
         <v>-658039.6005317033</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K365" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12473,11 +12561,11 @@
         <v>12.2</v>
       </c>
       <c r="J366" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L366" t="n">
@@ -12508,17 +12596,15 @@
         <v>-658036.6005317033</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L367" t="n">
@@ -12555,9 +12641,13 @@
         <v>12.2</v>
       </c>
       <c r="J368" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K368" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12590,11 +12680,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L369" t="n">
@@ -12629,7 +12719,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12668,7 +12758,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12707,7 +12797,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12746,7 +12836,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12785,7 +12875,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12826,7 +12916,7 @@
         <v>12.2</v>
       </c>
       <c r="J375" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -12867,7 +12957,7 @@
         <v>12.2</v>
       </c>
       <c r="J376" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -12902,11 +12992,13 @@
         <v>-1035675.518531703</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J377" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -12945,7 +13037,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -12984,7 +13076,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13019,11 +13111,13 @@
         <v>-1050906.370931703</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J380" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13058,11 +13152,13 @@
         <v>-1050906.370931703</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J381" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13101,7 +13197,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13140,7 +13236,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13175,11 +13271,13 @@
         <v>-885944.4511349821</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J384" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13214,11 +13312,13 @@
         <v>-1051468.027834982</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J385" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13253,11 +13353,13 @@
         <v>-1051468.027834982</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J386" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13292,11 +13394,13 @@
         <v>-1051468.027834982</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J387" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13331,11 +13435,13 @@
         <v>-1051458.027834982</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J388" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13348,6 +13454,6 @@
       <c r="M388" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-26 BackTest ORBS.xlsx
@@ -484,7 +484,7 @@
         <v>94308.45870000005</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>94264.56870000005</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>100404.5687</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1025109.6012</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1061679.2562</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1061669.2562</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1638149.1992</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2245859.0811</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2245859.0811</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2245859.0811</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>2108339.7015</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>2108229.407399999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1876921.420999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1876921.420999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1876921.420999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1876921.420999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1884613.728599999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1883838.131599999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1883849.131599999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1883849.131599999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1883707.459899999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1896268.089599999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1851487.094399999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1503212.764399999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1486549.201399999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1483759.201399999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1483771.201399999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1576047.526269696</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1576047.526269696</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1557370.634869696</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1557381.634869696</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1504074.459769696</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1512474.459769696</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1512474.459769696</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1290984.976769696</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1246632.846669696</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1246643.846669696</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1075032.937369696</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1697648.848269696</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>2624741.223299999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>2223570.496299999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>2210834.811299999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>2210834.811299999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>2048238.408099999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>2048238.408099999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>2048938.408099999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>2048938.408099999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>2036408.408099999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>2036408.408099999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1370996.851284148</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>1588249.803668297</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>1588249.803668297</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>1963642.454768297</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>1963642.454768297</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>1836955.720968297</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>1836955.720968297</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>1774989.412368297</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>1742884.673168297</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>2079427.705868297</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>2075414.548168297</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>2075414.548168297</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>2427545.887768297</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>2427545.887768297</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>2427375.748868297</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>2452340.748868297</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>2454346.609968297</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>2454346.609968297</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>2702141.685668297</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>2666904.558668297</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>2536651.372568297</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>2536662.372568297</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>2422644.064268297</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>2471098.652668296</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>2470918.735968296</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>2422269.024768297</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>2425614.291868296</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>2416869.575768297</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>2416880.575768297</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>2416880.575768297</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>2416891.575768297</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>2416891.575768297</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>2406891.575768297</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>2406912.575768297</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -12001,14 +12001,10 @@
         <v>-51872.14043170326</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J352" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
@@ -12041,929 +12037,777 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K353" t="inlineStr">
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C354" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D354" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E354" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F354" t="n">
+        <v>556131.5264</v>
+      </c>
+      <c r="G354" t="n">
+        <v>336525.4347682967</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C355" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D355" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E355" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F355" t="n">
+        <v>10</v>
+      </c>
+      <c r="G355" t="n">
+        <v>336515.4347682967</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C356" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D356" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E356" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F356" t="n">
+        <v>12</v>
+      </c>
+      <c r="G356" t="n">
+        <v>336527.4347682967</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C357" t="n">
+        <v>12</v>
+      </c>
+      <c r="D357" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E357" t="n">
+        <v>12</v>
+      </c>
+      <c r="F357" t="n">
+        <v>444826.4142</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-108298.9794317033</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>12</v>
+      </c>
+      <c r="C358" t="n">
+        <v>12</v>
+      </c>
+      <c r="D358" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E358" t="n">
+        <v>12</v>
+      </c>
+      <c r="F358" t="n">
+        <v>39463.8765</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-108298.9794317033</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>12</v>
+      </c>
+      <c r="C359" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D359" t="n">
+        <v>12</v>
+      </c>
+      <c r="E359" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F359" t="n">
+        <v>503782.219</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-612081.1984317033</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C360" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D360" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E360" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F360" t="n">
+        <v>340855.3115</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-952936.5099317033</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C361" t="n">
+        <v>12</v>
+      </c>
+      <c r="D361" t="n">
+        <v>12</v>
+      </c>
+      <c r="E361" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F361" t="n">
+        <v>57969.4904</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-894967.0195317033</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C362" t="n">
+        <v>12</v>
+      </c>
+      <c r="D362" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E362" t="n">
+        <v>12</v>
+      </c>
+      <c r="F362" t="n">
+        <v>748.2687</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-894967.0195317033</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C363" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D363" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E363" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F363" t="n">
+        <v>123.9669</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-894843.0526317033</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C364" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D364" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E364" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F364" t="n">
+        <v>236803.4521</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-658039.6005317033</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C365" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D365" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E365" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F365" t="n">
+        <v>71502.9999</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-658039.6005317033</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C366" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D366" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E366" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F366" t="n">
+        <v>13</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-658026.6005317033</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C367" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D367" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E367" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F367" t="n">
+        <v>10</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-658036.6005317033</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C368" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D368" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E368" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F368" t="n">
+        <v>11</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-658025.6005317033</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C369" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D369" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E369" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F369" t="n">
+        <v>40030</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-698055.6005317033</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C370" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D370" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E370" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F370" t="n">
+        <v>12</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-698043.6005317033</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C371" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D371" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E371" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F371" t="n">
+        <v>71.51000000000001</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-698115.1105317033</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C372" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D372" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E372" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F372" t="n">
+        <v>161300.813</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-698115.1105317033</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C373" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D373" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E373" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F373" t="n">
+        <v>180000</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-878115.1105317033</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C374" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D374" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E374" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F374" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-878115.1105317033</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C375" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D375" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E375" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F375" t="n">
+        <v>23860</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-878115.1105317033</v>
+      </c>
+      <c r="H375" t="n">
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J375" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C376" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D376" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E376" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F376" t="n">
+        <v>157572.408</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-1035687.518531703</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K376" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C354" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D354" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E354" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F354" t="n">
-        <v>556131.5264</v>
-      </c>
-      <c r="G354" t="n">
-        <v>336525.4347682967</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C355" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D355" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E355" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F355" t="n">
-        <v>10</v>
-      </c>
-      <c r="G355" t="n">
-        <v>336515.4347682967</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C356" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D356" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E356" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F356" t="n">
-        <v>12</v>
-      </c>
-      <c r="G356" t="n">
-        <v>336527.4347682967</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C357" t="n">
-        <v>12</v>
-      </c>
-      <c r="D357" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E357" t="n">
-        <v>12</v>
-      </c>
-      <c r="F357" t="n">
-        <v>444826.4142</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-108298.9794317033</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>12</v>
-      </c>
-      <c r="C358" t="n">
-        <v>12</v>
-      </c>
-      <c r="D358" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E358" t="n">
-        <v>12</v>
-      </c>
-      <c r="F358" t="n">
-        <v>39463.8765</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-108298.9794317033</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>12</v>
-      </c>
-      <c r="C359" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D359" t="n">
-        <v>12</v>
-      </c>
-      <c r="E359" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F359" t="n">
-        <v>503782.219</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-612081.1984317033</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C360" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D360" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E360" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F360" t="n">
-        <v>340855.3115</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-952936.5099317033</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J360" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C361" t="n">
-        <v>12</v>
-      </c>
-      <c r="D361" t="n">
-        <v>12</v>
-      </c>
-      <c r="E361" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F361" t="n">
-        <v>57969.4904</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-894967.0195317033</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J361" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C362" t="n">
-        <v>12</v>
-      </c>
-      <c r="D362" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E362" t="n">
-        <v>12</v>
-      </c>
-      <c r="F362" t="n">
-        <v>748.2687</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-894967.0195317033</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>12</v>
-      </c>
-      <c r="J362" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C363" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D363" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E363" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F363" t="n">
-        <v>123.9669</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-894843.0526317033</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>12</v>
-      </c>
-      <c r="J363" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C364" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D364" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E364" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F364" t="n">
-        <v>236803.4521</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-658039.6005317033</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J364" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C365" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D365" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E365" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F365" t="n">
-        <v>71502.9999</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-658039.6005317033</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C366" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D366" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E366" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F366" t="n">
-        <v>13</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-658026.6005317033</v>
-      </c>
-      <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J366" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C367" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D367" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E367" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F367" t="n">
-        <v>10</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-658036.6005317033</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C368" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D368" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E368" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F368" t="n">
-        <v>11</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-658025.6005317033</v>
-      </c>
-      <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J368" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C369" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D369" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E369" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F369" t="n">
-        <v>40030</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-698055.6005317033</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C370" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D370" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E370" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F370" t="n">
-        <v>12</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-698043.6005317033</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C371" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D371" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E371" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F371" t="n">
-        <v>71.51000000000001</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-698115.1105317033</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C372" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D372" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E372" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F372" t="n">
-        <v>161300.813</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-698115.1105317033</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C373" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D373" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E373" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F373" t="n">
-        <v>180000</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-878115.1105317033</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C374" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D374" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E374" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F374" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-878115.1105317033</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C375" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D375" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E375" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F375" t="n">
-        <v>23860</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-878115.1105317033</v>
-      </c>
-      <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J375" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C376" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D376" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E376" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F376" t="n">
-        <v>157572.408</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-1035687.518531703</v>
-      </c>
-      <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J376" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12998,7 +12842,7 @@
         <v>12.1</v>
       </c>
       <c r="J377" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13033,11 +12877,13 @@
         <v>-1035685.518531703</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J378" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13072,11 +12918,13 @@
         <v>-1035685.518531703</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J379" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13117,7 +12965,7 @@
         <v>12.2</v>
       </c>
       <c r="J380" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13158,7 +13006,7 @@
         <v>12.1</v>
       </c>
       <c r="J381" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13193,11 +13041,13 @@
         <v>-885944.4511349821</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J382" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13232,11 +13082,13 @@
         <v>-885974.4511349821</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J383" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13277,7 +13129,7 @@
         <v>12.1</v>
       </c>
       <c r="J384" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13318,7 +13170,7 @@
         <v>12.2</v>
       </c>
       <c r="J385" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13359,7 +13211,7 @@
         <v>12.1</v>
       </c>
       <c r="J386" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13400,7 +13252,7 @@
         <v>12.1</v>
       </c>
       <c r="J387" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13441,7 +13293,7 @@
         <v>12.1</v>
       </c>
       <c r="J388" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
